--- a/teaching/traditional_assets/database/data/romania/romania_real_estate_operations_services.xlsx
+++ b/teaching/traditional_assets/database/data/romania/romania_real_estate_operations_services.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="bvb_mece" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,25 +593,28 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0246</v>
+        <v>0.0677</v>
+      </c>
+      <c r="E2">
+        <v>0.281</v>
       </c>
       <c r="G2">
-        <v>0.1812056737588653</v>
+        <v>0.2983870967741936</v>
       </c>
       <c r="H2">
-        <v>0.1812056737588653</v>
+        <v>0.2983870967741936</v>
       </c>
       <c r="I2">
-        <v>-0.2464539007092199</v>
+        <v>0.1900537634408602</v>
       </c>
       <c r="J2">
-        <v>-0.2464539007092199</v>
+        <v>0.1669000054582173</v>
       </c>
       <c r="K2">
-        <v>-0.866</v>
+        <v>1.66</v>
       </c>
       <c r="L2">
-        <v>-0.3070921985815603</v>
+        <v>0.4462365591397849</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -618,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,79 +632,79 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.032</v>
+        <v>0.091</v>
       </c>
       <c r="V2">
-        <v>0.005342237061769616</v>
+        <v>0.0151414309484193</v>
       </c>
       <c r="W2">
-        <v>-0.02197969543147208</v>
+        <v>0.04510869565217392</v>
       </c>
       <c r="X2">
-        <v>0.0882109706253231</v>
+        <v>0.06546841955442029</v>
       </c>
       <c r="Y2">
-        <v>-0.1101906660567952</v>
+        <v>-0.02035972390224637</v>
       </c>
       <c r="Z2">
-        <v>0.06226815050344462</v>
+        <v>0.08619491171972751</v>
       </c>
       <c r="AA2">
-        <v>-0.0153462285815227</v>
+        <v>0.01438593123649308</v>
       </c>
       <c r="AB2">
-        <v>0.06713578056291078</v>
+        <v>0.0561782550972926</v>
       </c>
       <c r="AC2">
-        <v>-0.08248200914443347</v>
+        <v>-0.04179232386079952</v>
       </c>
       <c r="AD2">
-        <v>6.39</v>
+        <v>3.81</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>6.39</v>
+        <v>3.81</v>
       </c>
       <c r="AG2">
-        <v>6.358</v>
+        <v>3.719</v>
       </c>
       <c r="AH2">
-        <v>0.5161550888529887</v>
+        <v>0.3879837067209776</v>
       </c>
       <c r="AI2">
-        <v>0.1479509145635564</v>
+        <v>0.09405085164156997</v>
       </c>
       <c r="AJ2">
-        <v>0.514901198574668</v>
+        <v>0.3822592249974304</v>
       </c>
       <c r="AK2">
-        <v>0.1473191528801149</v>
+        <v>0.09201118285954624</v>
       </c>
       <c r="AL2">
-        <v>0.354</v>
+        <v>0.392</v>
       </c>
       <c r="AM2">
-        <v>0.239</v>
+        <v>0.392</v>
       </c>
       <c r="AN2">
-        <v>71</v>
+        <v>3.735294117647059</v>
       </c>
       <c r="AO2">
-        <v>-1.963276836158192</v>
+        <v>1.803571428571428</v>
       </c>
       <c r="AP2">
-        <v>70.64444444444445</v>
+        <v>3.646078431372549</v>
       </c>
       <c r="AQ2">
-        <v>-2.907949790794979</v>
+        <v>1.803571428571428</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +724,28 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0246</v>
+        <v>0.0677</v>
+      </c>
+      <c r="E3">
+        <v>0.281</v>
       </c>
       <c r="G3">
-        <v>0.1812056737588653</v>
+        <v>0.2983870967741936</v>
       </c>
       <c r="H3">
-        <v>0.1812056737588653</v>
+        <v>0.2983870967741936</v>
       </c>
       <c r="I3">
-        <v>-0.2464539007092199</v>
+        <v>0.1900537634408602</v>
       </c>
       <c r="J3">
-        <v>-0.2464539007092199</v>
+        <v>0.1669000054582173</v>
       </c>
       <c r="K3">
-        <v>-0.866</v>
+        <v>1.66</v>
       </c>
       <c r="L3">
-        <v>-0.3070921985815603</v>
+        <v>0.4462365591397849</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -746,7 +754,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,79 +763,8797 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.032</v>
+        <v>0.091</v>
       </c>
       <c r="V3">
-        <v>0.005342237061769616</v>
+        <v>0.0151414309484193</v>
       </c>
       <c r="W3">
-        <v>-0.02197969543147208</v>
+        <v>0.04510869565217392</v>
       </c>
       <c r="X3">
-        <v>0.0882109706253231</v>
+        <v>0.06546841955442029</v>
       </c>
       <c r="Y3">
-        <v>-0.1101906660567952</v>
+        <v>-0.02035972390224637</v>
       </c>
       <c r="Z3">
-        <v>0.06226815050344462</v>
+        <v>0.08619491171972751</v>
       </c>
       <c r="AA3">
-        <v>-0.0153462285815227</v>
+        <v>0.01438593123649308</v>
       </c>
       <c r="AB3">
-        <v>0.06713578056291078</v>
+        <v>0.0561782550972926</v>
       </c>
       <c r="AC3">
-        <v>-0.08248200914443347</v>
+        <v>-0.04179232386079952</v>
       </c>
       <c r="AD3">
-        <v>6.39</v>
+        <v>3.81</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>6.39</v>
+        <v>3.81</v>
       </c>
       <c r="AG3">
-        <v>6.358</v>
+        <v>3.719</v>
       </c>
       <c r="AH3">
-        <v>0.5161550888529887</v>
+        <v>0.3879837067209776</v>
       </c>
       <c r="AI3">
-        <v>0.1479509145635564</v>
+        <v>0.09405085164156997</v>
       </c>
       <c r="AJ3">
-        <v>0.514901198574668</v>
+        <v>0.3822592249974304</v>
       </c>
       <c r="AK3">
-        <v>0.1473191528801149</v>
+        <v>0.09201118285954624</v>
       </c>
       <c r="AL3">
-        <v>0.354</v>
+        <v>0.392</v>
       </c>
       <c r="AM3">
-        <v>0.239</v>
+        <v>0.392</v>
       </c>
       <c r="AN3">
-        <v>71</v>
+        <v>3.735294117647059</v>
       </c>
       <c r="AO3">
-        <v>-1.963276836158192</v>
+        <v>1.803571428571428</v>
       </c>
       <c r="AP3">
-        <v>70.64444444444445</v>
+        <v>3.646078431372549</v>
       </c>
       <c r="AQ3">
-        <v>-2.907949790794979</v>
+        <v>1.803571428571428</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mecanica Fina SA (BVB:MECE)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BVB:MECE</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Real Estate (Operations &amp; Services)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.387983706720978</v>
+      </c>
+      <c r="F2">
+        <v>0.26</v>
+      </c>
+      <c r="G2">
+        <v>6.01</v>
+      </c>
+      <c r="H2">
+        <v>10.1204610774206</v>
+      </c>
+      <c r="I2">
+        <v>9.728999999999999</v>
+      </c>
+      <c r="J2">
+        <v>12.5826610774206</v>
+      </c>
+      <c r="K2">
+        <v>3.81</v>
+      </c>
+      <c r="L2">
+        <v>2.5532</v>
+      </c>
+      <c r="M2">
+        <v>0.0561782550972926</v>
+      </c>
+      <c r="N2">
+        <v>0.0455465889397581</v>
+      </c>
+      <c r="O2">
+        <v>0.0415236912161017</v>
+      </c>
+      <c r="P2">
+        <v>0.013608</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>B3/B-</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0654684195544203</v>
+      </c>
+      <c r="T2">
+        <v>0.0567682553239974</v>
+      </c>
+      <c r="U2">
+        <v>0.819750052451662</v>
+      </c>
+      <c r="V2">
+        <v>0.692775497340365</v>
+      </c>
+      <c r="W2">
+        <v>13.87752575804171</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>6.01</v>
+      </c>
+      <c r="AB2">
+        <v>0.06851895817076799</v>
+      </c>
+      <c r="AC2">
+        <v>0.04943296573345439</v>
+      </c>
+      <c r="AD2">
+        <v>0.16</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1.02</v>
+      </c>
+      <c r="AH2">
+        <v>0.446</v>
+      </c>
+      <c r="AI2">
+        <v>1.658</v>
+      </c>
+      <c r="AJ2">
+        <v>3.81</v>
+      </c>
+      <c r="AK2">
+        <v>3.81</v>
+      </c>
+      <c r="AL2">
+        <v>0.392</v>
+      </c>
+      <c r="AM2">
+        <v>3.81</v>
+      </c>
+      <c r="AN2">
+        <v>0.091</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.04595119881026512</v>
+      </c>
+      <c r="C2">
+        <v>12.53475514707102</v>
+      </c>
+      <c r="D2">
+        <v>12.44375514707102</v>
+      </c>
+      <c r="E2">
+        <v>-3.81</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.091</v>
+      </c>
+      <c r="H2">
+        <v>6.01</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1.02</v>
+      </c>
+      <c r="K2">
+        <v>0.446</v>
+      </c>
+      <c r="L2">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="O2">
+        <v>0.09184000000000002</v>
+      </c>
+      <c r="P2">
+        <v>0.48216</v>
+      </c>
+      <c r="Q2">
+        <v>0.9281600000000001</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.04595119881026512</v>
+      </c>
+      <c r="T2">
+        <v>0.5349059557928524</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.16</v>
+      </c>
+      <c r="W2">
+        <v>0.013608</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.0459356368921687</v>
+      </c>
+      <c r="C3">
+        <v>12.44184094840649</v>
+      </c>
+      <c r="D3">
+        <v>12.44904094840649</v>
+      </c>
+      <c r="E3">
+        <v>-3.7118</v>
+      </c>
+      <c r="F3">
+        <v>0.09820000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.091</v>
+      </c>
+      <c r="H3">
+        <v>6.01</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1.02</v>
+      </c>
+      <c r="K3">
+        <v>0.446</v>
+      </c>
+      <c r="L3">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.00159084</v>
+      </c>
+      <c r="N3">
+        <v>0.5724091600000001</v>
+      </c>
+      <c r="O3">
+        <v>0.09158546560000001</v>
+      </c>
+      <c r="P3">
+        <v>0.4808236944000001</v>
+      </c>
+      <c r="Q3">
+        <v>0.9268236944000001</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.04626217867895828</v>
+      </c>
+      <c r="T3">
+        <v>0.5394445517813978</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.16</v>
+      </c>
+      <c r="W3">
+        <v>0.013608</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>360.8156697090845</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.04592007497407227</v>
+      </c>
+      <c r="C4">
+        <v>12.34893124220724</v>
+      </c>
+      <c r="D4">
+        <v>12.45433124220724</v>
+      </c>
+      <c r="E4">
+        <v>-3.6136</v>
+      </c>
+      <c r="F4">
+        <v>0.1964</v>
+      </c>
+      <c r="G4">
+        <v>0.091</v>
+      </c>
+      <c r="H4">
+        <v>6.01</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1.02</v>
+      </c>
+      <c r="K4">
+        <v>0.446</v>
+      </c>
+      <c r="L4">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M4">
+        <v>0.00318168</v>
+      </c>
+      <c r="N4">
+        <v>0.5708183200000001</v>
+      </c>
+      <c r="O4">
+        <v>0.09133093120000002</v>
+      </c>
+      <c r="P4">
+        <v>0.4794873888000001</v>
+      </c>
+      <c r="Q4">
+        <v>0.9254873888000001</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.04657950507558395</v>
+      </c>
+      <c r="T4">
+        <v>0.5440757721778727</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.16</v>
+      </c>
+      <c r="W4">
+        <v>0.013608</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>180.4078348545423</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.04590451305597584</v>
+      </c>
+      <c r="C5">
+        <v>12.25602603420299</v>
+      </c>
+      <c r="D5">
+        <v>12.45962603420299</v>
+      </c>
+      <c r="E5">
+        <v>-3.5154</v>
+      </c>
+      <c r="F5">
+        <v>0.2946</v>
+      </c>
+      <c r="G5">
+        <v>0.091</v>
+      </c>
+      <c r="H5">
+        <v>6.01</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1.02</v>
+      </c>
+      <c r="K5">
+        <v>0.446</v>
+      </c>
+      <c r="L5">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.00477252</v>
+      </c>
+      <c r="N5">
+        <v>0.5692274800000001</v>
+      </c>
+      <c r="O5">
+        <v>0.09107639680000001</v>
+      </c>
+      <c r="P5">
+        <v>0.4781510832000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.9241510832000002</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.04690337428451118</v>
+      </c>
+      <c r="T5">
+        <v>0.5488024816546873</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.16</v>
+      </c>
+      <c r="W5">
+        <v>0.013608</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>120.2718899030282</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.04588895113787943</v>
+      </c>
+      <c r="C6">
+        <v>12.16312533013321</v>
+      </c>
+      <c r="D6">
+        <v>12.46492533013321</v>
+      </c>
+      <c r="E6">
+        <v>-3.4172</v>
+      </c>
+      <c r="F6">
+        <v>0.3928</v>
+      </c>
+      <c r="G6">
+        <v>0.091</v>
+      </c>
+      <c r="H6">
+        <v>6.01</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1.02</v>
+      </c>
+      <c r="K6">
+        <v>0.446</v>
+      </c>
+      <c r="L6">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.00636336</v>
+      </c>
+      <c r="N6">
+        <v>0.56763664</v>
+      </c>
+      <c r="O6">
+        <v>0.09082186240000001</v>
+      </c>
+      <c r="P6">
+        <v>0.4768147776</v>
+      </c>
+      <c r="Q6">
+        <v>0.9228147776</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.0472339907686244</v>
+      </c>
+      <c r="T6">
+        <v>0.5536276642456022</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.16</v>
+      </c>
+      <c r="W6">
+        <v>0.013608</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>90.20391742727112</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.04587338921978299</v>
+      </c>
+      <c r="C7">
+        <v>12.07022913574718</v>
+      </c>
+      <c r="D7">
+        <v>12.47022913574718</v>
+      </c>
+      <c r="E7">
+        <v>-3.319</v>
+      </c>
+      <c r="F7">
+        <v>0.491</v>
+      </c>
+      <c r="G7">
+        <v>0.091</v>
+      </c>
+      <c r="H7">
+        <v>6.01</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1.02</v>
+      </c>
+      <c r="K7">
+        <v>0.446</v>
+      </c>
+      <c r="L7">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.0079542</v>
+      </c>
+      <c r="N7">
+        <v>0.5660458</v>
+      </c>
+      <c r="O7">
+        <v>0.090567328</v>
+      </c>
+      <c r="P7">
+        <v>0.475478472</v>
+      </c>
+      <c r="Q7">
+        <v>0.921478472</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.04757156759977157</v>
+      </c>
+      <c r="T7">
+        <v>0.5585544296279048</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.16</v>
+      </c>
+      <c r="W7">
+        <v>0.013608</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>72.16313394181691</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.04585782730168658</v>
+      </c>
+      <c r="C8">
+        <v>11.97733745680392</v>
+      </c>
+      <c r="D8">
+        <v>12.47553745680392</v>
+      </c>
+      <c r="E8">
+        <v>-3.2208</v>
+      </c>
+      <c r="F8">
+        <v>0.5891999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0.091</v>
+      </c>
+      <c r="H8">
+        <v>6.01</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1.02</v>
+      </c>
+      <c r="K8">
+        <v>0.446</v>
+      </c>
+      <c r="L8">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M8">
+        <v>0.009545039999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.5644549600000001</v>
+      </c>
+      <c r="O8">
+        <v>0.09031279360000001</v>
+      </c>
+      <c r="P8">
+        <v>0.4741421664000001</v>
+      </c>
+      <c r="Q8">
+        <v>0.9201421664</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.04791632691668785</v>
+      </c>
+      <c r="T8">
+        <v>0.5635860198055755</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.16</v>
+      </c>
+      <c r="W8">
+        <v>0.013608</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>60.1359449515141</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.04584226538359015</v>
+      </c>
+      <c r="C9">
+        <v>11.88445029907228</v>
+      </c>
+      <c r="D9">
+        <v>12.48085029907228</v>
+      </c>
+      <c r="E9">
+        <v>-3.1226</v>
+      </c>
+      <c r="F9">
+        <v>0.6874000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.091</v>
+      </c>
+      <c r="H9">
+        <v>6.01</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1.02</v>
+      </c>
+      <c r="K9">
+        <v>0.446</v>
+      </c>
+      <c r="L9">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.01113588</v>
+      </c>
+      <c r="N9">
+        <v>0.5628641200000001</v>
+      </c>
+      <c r="O9">
+        <v>0.09005825920000002</v>
+      </c>
+      <c r="P9">
+        <v>0.4728058608000001</v>
+      </c>
+      <c r="Q9">
+        <v>0.9188058608</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.04826850041246253</v>
+      </c>
+      <c r="T9">
+        <v>0.5687258162236263</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.16</v>
+      </c>
+      <c r="W9">
+        <v>0.013608</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>51.54509567272636</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.04582670346549373</v>
+      </c>
+      <c r="C10">
+        <v>11.79156766833095</v>
+      </c>
+      <c r="D10">
+        <v>12.48616766833095</v>
+      </c>
+      <c r="E10">
+        <v>-3.0244</v>
+      </c>
+      <c r="F10">
+        <v>0.7856000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.091</v>
+      </c>
+      <c r="H10">
+        <v>6.01</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1.02</v>
+      </c>
+      <c r="K10">
+        <v>0.446</v>
+      </c>
+      <c r="L10">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.01272672</v>
+      </c>
+      <c r="N10">
+        <v>0.5612732800000001</v>
+      </c>
+      <c r="O10">
+        <v>0.08980372480000001</v>
+      </c>
+      <c r="P10">
+        <v>0.4714695552000001</v>
+      </c>
+      <c r="Q10">
+        <v>0.9174695552000001</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.04862832985379753</v>
+      </c>
+      <c r="T10">
+        <v>0.5739773473464173</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.16</v>
+      </c>
+      <c r="W10">
+        <v>0.013608</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>45.10195871363557</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.04581114154739729</v>
+      </c>
+      <c r="C11">
+        <v>11.69868957036846</v>
+      </c>
+      <c r="D11">
+        <v>12.49148957036846</v>
+      </c>
+      <c r="E11">
+        <v>-2.9262</v>
+      </c>
+      <c r="F11">
+        <v>0.8838</v>
+      </c>
+      <c r="G11">
+        <v>0.091</v>
+      </c>
+      <c r="H11">
+        <v>6.01</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1.02</v>
+      </c>
+      <c r="K11">
+        <v>0.446</v>
+      </c>
+      <c r="L11">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.01431756</v>
+      </c>
+      <c r="N11">
+        <v>0.5596824400000001</v>
+      </c>
+      <c r="O11">
+        <v>0.08954919040000002</v>
+      </c>
+      <c r="P11">
+        <v>0.4701332496000001</v>
+      </c>
+      <c r="Q11">
+        <v>0.9161332496000001</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.04899606763450252</v>
+      </c>
+      <c r="T11">
+        <v>0.5793442967356431</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.16</v>
+      </c>
+      <c r="W11">
+        <v>0.013608</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>40.09062996767607</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.04579557962930088</v>
+      </c>
+      <c r="C12">
+        <v>11.60581601098321</v>
+      </c>
+      <c r="D12">
+        <v>12.49681601098321</v>
+      </c>
+      <c r="E12">
+        <v>-2.828</v>
+      </c>
+      <c r="F12">
+        <v>0.9820000000000001</v>
+      </c>
+      <c r="G12">
+        <v>0.091</v>
+      </c>
+      <c r="H12">
+        <v>6.01</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1.02</v>
+      </c>
+      <c r="K12">
+        <v>0.446</v>
+      </c>
+      <c r="L12">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M12">
+        <v>0.0159084</v>
+      </c>
+      <c r="N12">
+        <v>0.5580916</v>
+      </c>
+      <c r="O12">
+        <v>0.089294656</v>
+      </c>
+      <c r="P12">
+        <v>0.468796944</v>
+      </c>
+      <c r="Q12">
+        <v>0.9147969440000001</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.04937197736588986</v>
+      </c>
+      <c r="T12">
+        <v>0.5848305116668518</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.16</v>
+      </c>
+      <c r="W12">
+        <v>0.013608</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>36.08156697090845</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.04578001771120446</v>
+      </c>
+      <c r="C13">
+        <v>11.5129469959835</v>
+      </c>
+      <c r="D13">
+        <v>12.5021469959835</v>
+      </c>
+      <c r="E13">
+        <v>-2.7298</v>
+      </c>
+      <c r="F13">
+        <v>1.0802</v>
+      </c>
+      <c r="G13">
+        <v>0.091</v>
+      </c>
+      <c r="H13">
+        <v>6.01</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1.02</v>
+      </c>
+      <c r="K13">
+        <v>0.446</v>
+      </c>
+      <c r="L13">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M13">
+        <v>0.01749924</v>
+      </c>
+      <c r="N13">
+        <v>0.55650076</v>
+      </c>
+      <c r="O13">
+        <v>0.08904012160000001</v>
+      </c>
+      <c r="P13">
+        <v>0.4674606384</v>
+      </c>
+      <c r="Q13">
+        <v>0.9134606384</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.0497563345069713</v>
+      </c>
+      <c r="T13">
+        <v>0.5904400123268518</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.16</v>
+      </c>
+      <c r="W13">
+        <v>0.013608</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>32.80142451900768</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.04576445579310803</v>
+      </c>
+      <c r="C14">
+        <v>11.42008253118756</v>
+      </c>
+      <c r="D14">
+        <v>12.50748253118756</v>
+      </c>
+      <c r="E14">
+        <v>-2.6316</v>
+      </c>
+      <c r="F14">
+        <v>1.1784</v>
+      </c>
+      <c r="G14">
+        <v>0.091</v>
+      </c>
+      <c r="H14">
+        <v>6.01</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1.02</v>
+      </c>
+      <c r="K14">
+        <v>0.446</v>
+      </c>
+      <c r="L14">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M14">
+        <v>0.01909008</v>
+      </c>
+      <c r="N14">
+        <v>0.5549099200000001</v>
+      </c>
+      <c r="O14">
+        <v>0.08878558720000002</v>
+      </c>
+      <c r="P14">
+        <v>0.4661243328</v>
+      </c>
+      <c r="Q14">
+        <v>0.9121243328</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.05014942703762276</v>
+      </c>
+      <c r="T14">
+        <v>0.5961770016382154</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.16</v>
+      </c>
+      <c r="W14">
+        <v>0.013608</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>30.06797247575705</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.04574889387501161</v>
+      </c>
+      <c r="C15">
+        <v>11.32722262242353</v>
+      </c>
+      <c r="D15">
+        <v>12.51282262242353</v>
+      </c>
+      <c r="E15">
+        <v>-2.5334</v>
+      </c>
+      <c r="F15">
+        <v>1.2766</v>
+      </c>
+      <c r="G15">
+        <v>0.091</v>
+      </c>
+      <c r="H15">
+        <v>6.01</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1.02</v>
+      </c>
+      <c r="K15">
+        <v>0.446</v>
+      </c>
+      <c r="L15">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M15">
+        <v>0.02068092</v>
+      </c>
+      <c r="N15">
+        <v>0.5533190800000001</v>
+      </c>
+      <c r="O15">
+        <v>0.08853105280000001</v>
+      </c>
+      <c r="P15">
+        <v>0.4647880272000001</v>
+      </c>
+      <c r="Q15">
+        <v>0.9107880272000001</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.05055155617817426</v>
+      </c>
+      <c r="T15">
+        <v>0.6020458757613346</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.16</v>
+      </c>
+      <c r="W15">
+        <v>0.013608</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>27.75505151608343</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.04573333195691519</v>
+      </c>
+      <c r="C16">
+        <v>11.23436727552952</v>
+      </c>
+      <c r="D16">
+        <v>12.51816727552952</v>
+      </c>
+      <c r="E16">
+        <v>-2.4352</v>
+      </c>
+      <c r="F16">
+        <v>1.3748</v>
+      </c>
+      <c r="G16">
+        <v>0.091</v>
+      </c>
+      <c r="H16">
+        <v>6.01</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1.02</v>
+      </c>
+      <c r="K16">
+        <v>0.446</v>
+      </c>
+      <c r="L16">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M16">
+        <v>0.02227176</v>
+      </c>
+      <c r="N16">
+        <v>0.5517282400000001</v>
+      </c>
+      <c r="O16">
+        <v>0.08827651840000002</v>
+      </c>
+      <c r="P16">
+        <v>0.4634517216000001</v>
+      </c>
+      <c r="Q16">
+        <v>0.9094517216000001</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.05096303715920371</v>
+      </c>
+      <c r="T16">
+        <v>0.6080512353291774</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.16</v>
+      </c>
+      <c r="W16">
+        <v>0.013608</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>25.77254783636318</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.04571777003881876</v>
+      </c>
+      <c r="C17">
+        <v>11.14151649635363</v>
+      </c>
+      <c r="D17">
+        <v>12.52351649635363</v>
+      </c>
+      <c r="E17">
+        <v>-2.337</v>
+      </c>
+      <c r="F17">
+        <v>1.473</v>
+      </c>
+      <c r="G17">
+        <v>0.091</v>
+      </c>
+      <c r="H17">
+        <v>6.01</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>1.02</v>
+      </c>
+      <c r="K17">
+        <v>0.446</v>
+      </c>
+      <c r="L17">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M17">
+        <v>0.0238626</v>
+      </c>
+      <c r="N17">
+        <v>0.5501374000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.08802198400000003</v>
+      </c>
+      <c r="P17">
+        <v>0.4621154160000001</v>
+      </c>
+      <c r="Q17">
+        <v>0.908115416</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.05138420004566913</v>
+      </c>
+      <c r="T17">
+        <v>0.6141978974750869</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.16</v>
+      </c>
+      <c r="W17">
+        <v>0.013608</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>24.05437798060564</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.04570220812072232</v>
+      </c>
+      <c r="C18">
+        <v>11.04867029075394</v>
+      </c>
+      <c r="D18">
+        <v>12.52887029075394</v>
+      </c>
+      <c r="E18">
+        <v>-2.2388</v>
+      </c>
+      <c r="F18">
+        <v>1.5712</v>
+      </c>
+      <c r="G18">
+        <v>0.091</v>
+      </c>
+      <c r="H18">
+        <v>6.01</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1.02</v>
+      </c>
+      <c r="K18">
+        <v>0.446</v>
+      </c>
+      <c r="L18">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M18">
+        <v>0.02545344</v>
+      </c>
+      <c r="N18">
+        <v>0.54854656</v>
+      </c>
+      <c r="O18">
+        <v>0.08776744960000001</v>
+      </c>
+      <c r="P18">
+        <v>0.4607791104</v>
+      </c>
+      <c r="Q18">
+        <v>0.9067791104</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.05181539061990753</v>
+      </c>
+      <c r="T18">
+        <v>0.6204909087197087</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.16</v>
+      </c>
+      <c r="W18">
+        <v>0.013608</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>22.55097935681778</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.04568664620262592</v>
+      </c>
+      <c r="C19">
+        <v>10.95582866459855</v>
+      </c>
+      <c r="D19">
+        <v>12.53422866459855</v>
+      </c>
+      <c r="E19">
+        <v>-2.1406</v>
+      </c>
+      <c r="F19">
+        <v>1.6694</v>
+      </c>
+      <c r="G19">
+        <v>0.091</v>
+      </c>
+      <c r="H19">
+        <v>6.01</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1.02</v>
+      </c>
+      <c r="K19">
+        <v>0.446</v>
+      </c>
+      <c r="L19">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M19">
+        <v>0.02704428</v>
+      </c>
+      <c r="N19">
+        <v>0.54695572</v>
+      </c>
+      <c r="O19">
+        <v>0.08751291520000001</v>
+      </c>
+      <c r="P19">
+        <v>0.4594428048</v>
+      </c>
+      <c r="Q19">
+        <v>0.9054428048000001</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.05225697132846496</v>
+      </c>
+      <c r="T19">
+        <v>0.6269355587895022</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.16</v>
+      </c>
+      <c r="W19">
+        <v>0.013608</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>21.22445115935791</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.04567108428452948</v>
+      </c>
+      <c r="C20">
+        <v>10.86299162376563</v>
+      </c>
+      <c r="D20">
+        <v>12.53959162376563</v>
+      </c>
+      <c r="E20">
+        <v>-2.0424</v>
+      </c>
+      <c r="F20">
+        <v>1.7676</v>
+      </c>
+      <c r="G20">
+        <v>0.091</v>
+      </c>
+      <c r="H20">
+        <v>6.01</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1.02</v>
+      </c>
+      <c r="K20">
+        <v>0.446</v>
+      </c>
+      <c r="L20">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M20">
+        <v>0.02863512</v>
+      </c>
+      <c r="N20">
+        <v>0.5453648800000001</v>
+      </c>
+      <c r="O20">
+        <v>0.08725838080000001</v>
+      </c>
+      <c r="P20">
+        <v>0.4581064992</v>
+      </c>
+      <c r="Q20">
+        <v>0.9041064992000001</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.05270932229820668</v>
+      </c>
+      <c r="T20">
+        <v>0.6335373954463637</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.16</v>
+      </c>
+      <c r="W20">
+        <v>0.013608</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>20.04531498383803</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.04565552236643305</v>
+      </c>
+      <c r="C21">
+        <v>10.77015917414339</v>
+      </c>
+      <c r="D21">
+        <v>12.5449591741434</v>
+      </c>
+      <c r="E21">
+        <v>-1.9442</v>
+      </c>
+      <c r="F21">
+        <v>1.8658</v>
+      </c>
+      <c r="G21">
+        <v>0.091</v>
+      </c>
+      <c r="H21">
+        <v>6.01</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1.02</v>
+      </c>
+      <c r="K21">
+        <v>0.446</v>
+      </c>
+      <c r="L21">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M21">
+        <v>0.03022596</v>
+      </c>
+      <c r="N21">
+        <v>0.5437740400000001</v>
+      </c>
+      <c r="O21">
+        <v>0.08700384640000002</v>
+      </c>
+      <c r="P21">
+        <v>0.4567701936</v>
+      </c>
+      <c r="Q21">
+        <v>0.9027701936000001</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.05317284242769513</v>
+      </c>
+      <c r="T21">
+        <v>0.6403022404157402</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.16</v>
+      </c>
+      <c r="W21">
+        <v>0.013608</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>18.99029840574129</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.04563996044833663</v>
+      </c>
+      <c r="C22">
+        <v>10.67733132163014</v>
+      </c>
+      <c r="D22">
+        <v>12.55033132163014</v>
+      </c>
+      <c r="E22">
+        <v>-1.846</v>
+      </c>
+      <c r="F22">
+        <v>1.964</v>
+      </c>
+      <c r="G22">
+        <v>0.091</v>
+      </c>
+      <c r="H22">
+        <v>6.01</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1.02</v>
+      </c>
+      <c r="K22">
+        <v>0.446</v>
+      </c>
+      <c r="L22">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M22">
+        <v>0.0318168</v>
+      </c>
+      <c r="N22">
+        <v>0.5421832000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.08674931200000001</v>
+      </c>
+      <c r="P22">
+        <v>0.4554338880000001</v>
+      </c>
+      <c r="Q22">
+        <v>0.9014338880000001</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.05364795056042079</v>
+      </c>
+      <c r="T22">
+        <v>0.6472362065093513</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.16</v>
+      </c>
+      <c r="W22">
+        <v>0.013608</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>18.04078348545423</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.04562439853024022</v>
+      </c>
+      <c r="C23">
+        <v>10.58450807213428</v>
+      </c>
+      <c r="D23">
+        <v>12.55570807213428</v>
+      </c>
+      <c r="E23">
+        <v>-1.7478</v>
+      </c>
+      <c r="F23">
+        <v>2.0622</v>
+      </c>
+      <c r="G23">
+        <v>0.091</v>
+      </c>
+      <c r="H23">
+        <v>6.01</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1.02</v>
+      </c>
+      <c r="K23">
+        <v>0.446</v>
+      </c>
+      <c r="L23">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M23">
+        <v>0.03340764</v>
+      </c>
+      <c r="N23">
+        <v>0.5405923600000001</v>
+      </c>
+      <c r="O23">
+        <v>0.08649477760000002</v>
+      </c>
+      <c r="P23">
+        <v>0.4540975824000001</v>
+      </c>
+      <c r="Q23">
+        <v>0.9000975824000002</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.05413508674713952</v>
+      </c>
+      <c r="T23">
+        <v>0.6543457160483703</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.16</v>
+      </c>
+      <c r="W23">
+        <v>0.013608</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>17.18169855757546</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.04560883661214379</v>
+      </c>
+      <c r="C24">
+        <v>10.49168943157436</v>
+      </c>
+      <c r="D24">
+        <v>12.56108943157437</v>
+      </c>
+      <c r="E24">
+        <v>-1.6496</v>
+      </c>
+      <c r="F24">
+        <v>2.1604</v>
+      </c>
+      <c r="G24">
+        <v>0.091</v>
+      </c>
+      <c r="H24">
+        <v>6.01</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1.02</v>
+      </c>
+      <c r="K24">
+        <v>0.446</v>
+      </c>
+      <c r="L24">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M24">
+        <v>0.03499848</v>
+      </c>
+      <c r="N24">
+        <v>0.53900152</v>
+      </c>
+      <c r="O24">
+        <v>0.0862402432</v>
+      </c>
+      <c r="P24">
+        <v>0.4527612768</v>
+      </c>
+      <c r="Q24">
+        <v>0.8987612768</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.05463471360531255</v>
+      </c>
+      <c r="T24">
+        <v>0.6616375207037742</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.16</v>
+      </c>
+      <c r="W24">
+        <v>0.013608</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>16.40071225950384</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.04559327469404736</v>
+      </c>
+      <c r="C25">
+        <v>10.39887540587908</v>
+      </c>
+      <c r="D25">
+        <v>12.56647540587908</v>
+      </c>
+      <c r="E25">
+        <v>-1.5514</v>
+      </c>
+      <c r="F25">
+        <v>2.2586</v>
+      </c>
+      <c r="G25">
+        <v>0.091</v>
+      </c>
+      <c r="H25">
+        <v>6.01</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1.02</v>
+      </c>
+      <c r="K25">
+        <v>0.446</v>
+      </c>
+      <c r="L25">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M25">
+        <v>0.03658932</v>
+      </c>
+      <c r="N25">
+        <v>0.53741068</v>
+      </c>
+      <c r="O25">
+        <v>0.0859857088</v>
+      </c>
+      <c r="P25">
+        <v>0.4514249712</v>
+      </c>
+      <c r="Q25">
+        <v>0.8974249712</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.0551473177844771</v>
+      </c>
+      <c r="T25">
+        <v>0.6691187228826954</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.16</v>
+      </c>
+      <c r="W25">
+        <v>0.013608</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>15.68763781343846</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.04557771277595094</v>
+      </c>
+      <c r="C26">
+        <v>10.30606600098728</v>
+      </c>
+      <c r="D26">
+        <v>12.57186600098728</v>
+      </c>
+      <c r="E26">
+        <v>-1.4532</v>
+      </c>
+      <c r="F26">
+        <v>2.3568</v>
+      </c>
+      <c r="G26">
+        <v>0.091</v>
+      </c>
+      <c r="H26">
+        <v>6.01</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1.02</v>
+      </c>
+      <c r="K26">
+        <v>0.446</v>
+      </c>
+      <c r="L26">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M26">
+        <v>0.03818016</v>
+      </c>
+      <c r="N26">
+        <v>0.53581984</v>
+      </c>
+      <c r="O26">
+        <v>0.08573117440000001</v>
+      </c>
+      <c r="P26">
+        <v>0.4500886656</v>
+      </c>
+      <c r="Q26">
+        <v>0.8960886656</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.05567341154730387</v>
+      </c>
+      <c r="T26">
+        <v>0.6767967988031669</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.16</v>
+      </c>
+      <c r="W26">
+        <v>0.013608</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>15.03398623787852</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.04556215085785453</v>
+      </c>
+      <c r="C27">
+        <v>10.21326122284805</v>
+      </c>
+      <c r="D27">
+        <v>12.57726122284805</v>
+      </c>
+      <c r="E27">
+        <v>-1.355</v>
+      </c>
+      <c r="F27">
+        <v>2.455</v>
+      </c>
+      <c r="G27">
+        <v>0.091</v>
+      </c>
+      <c r="H27">
+        <v>6.01</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>1.02</v>
+      </c>
+      <c r="K27">
+        <v>0.446</v>
+      </c>
+      <c r="L27">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M27">
+        <v>0.039771</v>
+      </c>
+      <c r="N27">
+        <v>0.5342290000000001</v>
+      </c>
+      <c r="O27">
+        <v>0.08547664000000001</v>
+      </c>
+      <c r="P27">
+        <v>0.4487523600000001</v>
+      </c>
+      <c r="Q27">
+        <v>0.89475236</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.05621353447713937</v>
+      </c>
+      <c r="T27">
+        <v>0.6846796234148511</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.16</v>
+      </c>
+      <c r="W27">
+        <v>0.013608</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>14.43262678836338</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.0455465889397581</v>
+      </c>
+      <c r="C28">
+        <v>10.12046107742064</v>
+      </c>
+      <c r="D28">
+        <v>12.58266107742064</v>
+      </c>
+      <c r="E28">
+        <v>-1.2568</v>
+      </c>
+      <c r="F28">
+        <v>2.5532</v>
+      </c>
+      <c r="G28">
+        <v>0.091</v>
+      </c>
+      <c r="H28">
+        <v>6.01</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1.02</v>
+      </c>
+      <c r="K28">
+        <v>0.446</v>
+      </c>
+      <c r="L28">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M28">
+        <v>0.04136184</v>
+      </c>
+      <c r="N28">
+        <v>0.5326381600000001</v>
+      </c>
+      <c r="O28">
+        <v>0.08522210560000001</v>
+      </c>
+      <c r="P28">
+        <v>0.4474160544000001</v>
+      </c>
+      <c r="Q28">
+        <v>0.8934160544</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.05676825532399743</v>
+      </c>
+      <c r="T28">
+        <v>0.6927754973403646</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.16</v>
+      </c>
+      <c r="W28">
+        <v>0.013608</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>13.87752575804171</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.04589390702166167</v>
+      </c>
+      <c r="C29">
+        <v>9.902837215189544</v>
+      </c>
+      <c r="D29">
+        <v>12.46323721518955</v>
+      </c>
+      <c r="E29">
+        <v>-1.1586</v>
+      </c>
+      <c r="F29">
+        <v>2.6514</v>
+      </c>
+      <c r="G29">
+        <v>0.091</v>
+      </c>
+      <c r="H29">
+        <v>6.01</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1.02</v>
+      </c>
+      <c r="K29">
+        <v>0.446</v>
+      </c>
+      <c r="L29">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M29">
+        <v>0.04719492</v>
+      </c>
+      <c r="N29">
+        <v>0.52680508</v>
+      </c>
+      <c r="O29">
+        <v>0.0842888128</v>
+      </c>
+      <c r="P29">
+        <v>0.4425162672</v>
+      </c>
+      <c r="Q29">
+        <v>0.8885162672</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.05733817400227627</v>
+      </c>
+      <c r="T29">
+        <v>0.7010931760309606</v>
+      </c>
+      <c r="U29">
+        <v>0.0178</v>
+      </c>
+      <c r="V29">
+        <v>0.16</v>
+      </c>
+      <c r="W29">
+        <v>0.014952</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>12.16232594525004</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.04589178510356524</v>
+      </c>
+      <c r="C30">
+        <v>9.805359944854469</v>
+      </c>
+      <c r="D30">
+        <v>12.46395994485447</v>
+      </c>
+      <c r="E30">
+        <v>-1.0604</v>
+      </c>
+      <c r="F30">
+        <v>2.7496</v>
+      </c>
+      <c r="G30">
+        <v>0.091</v>
+      </c>
+      <c r="H30">
+        <v>6.01</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1.02</v>
+      </c>
+      <c r="K30">
+        <v>0.446</v>
+      </c>
+      <c r="L30">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M30">
+        <v>0.04894288000000001</v>
+      </c>
+      <c r="N30">
+        <v>0.52505712</v>
+      </c>
+      <c r="O30">
+        <v>0.08400913920000001</v>
+      </c>
+      <c r="P30">
+        <v>0.4410479808</v>
+      </c>
+      <c r="Q30">
+        <v>0.8870479808</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.05792392375495173</v>
+      </c>
+      <c r="T30">
+        <v>0.7096419013518508</v>
+      </c>
+      <c r="U30">
+        <v>0.0178</v>
+      </c>
+      <c r="V30">
+        <v>0.16</v>
+      </c>
+      <c r="W30">
+        <v>0.014952</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>11.72795716149111</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.04588966318546881</v>
+      </c>
+      <c r="C31">
+        <v>9.707882758344887</v>
+      </c>
+      <c r="D31">
+        <v>12.46468275834489</v>
+      </c>
+      <c r="E31">
+        <v>-0.9622000000000002</v>
+      </c>
+      <c r="F31">
+        <v>2.8478</v>
+      </c>
+      <c r="G31">
+        <v>0.091</v>
+      </c>
+      <c r="H31">
+        <v>6.01</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1.02</v>
+      </c>
+      <c r="K31">
+        <v>0.446</v>
+      </c>
+      <c r="L31">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M31">
+        <v>0.05069084</v>
+      </c>
+      <c r="N31">
+        <v>0.5233091600000001</v>
+      </c>
+      <c r="O31">
+        <v>0.08372946560000001</v>
+      </c>
+      <c r="P31">
+        <v>0.4395796944000001</v>
+      </c>
+      <c r="Q31">
+        <v>0.8855796944000001</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.05852617350066031</v>
+      </c>
+      <c r="T31">
+        <v>0.7184314358367099</v>
+      </c>
+      <c r="U31">
+        <v>0.0178</v>
+      </c>
+      <c r="V31">
+        <v>0.16</v>
+      </c>
+      <c r="W31">
+        <v>0.014952</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>11.32354484557762</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.04588754126737239</v>
+      </c>
+      <c r="C32">
+        <v>9.610405655675367</v>
+      </c>
+      <c r="D32">
+        <v>12.46540565567537</v>
+      </c>
+      <c r="E32">
+        <v>-0.8639999999999999</v>
+      </c>
+      <c r="F32">
+        <v>2.946</v>
+      </c>
+      <c r="G32">
+        <v>0.091</v>
+      </c>
+      <c r="H32">
+        <v>6.01</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1.02</v>
+      </c>
+      <c r="K32">
+        <v>0.446</v>
+      </c>
+      <c r="L32">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M32">
+        <v>0.0524388</v>
+      </c>
+      <c r="N32">
+        <v>0.5215612000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.08344979200000001</v>
+      </c>
+      <c r="P32">
+        <v>0.438111408</v>
+      </c>
+      <c r="Q32">
+        <v>0.8841114080000001</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.05914563038196056</v>
+      </c>
+      <c r="T32">
+        <v>0.7274720998782792</v>
+      </c>
+      <c r="U32">
+        <v>0.0178</v>
+      </c>
+      <c r="V32">
+        <v>0.16</v>
+      </c>
+      <c r="W32">
+        <v>0.014952</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>10.94609335072504</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.04645829934927596</v>
+      </c>
+      <c r="C33">
+        <v>9.320734809410123</v>
+      </c>
+      <c r="D33">
+        <v>12.27393480941012</v>
+      </c>
+      <c r="E33">
+        <v>-0.7658</v>
+      </c>
+      <c r="F33">
+        <v>3.0442</v>
+      </c>
+      <c r="G33">
+        <v>0.091</v>
+      </c>
+      <c r="H33">
+        <v>6.01</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1.02</v>
+      </c>
+      <c r="K33">
+        <v>0.446</v>
+      </c>
+      <c r="L33">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M33">
+        <v>0.06088399999999999</v>
+      </c>
+      <c r="N33">
+        <v>0.5131160000000001</v>
+      </c>
+      <c r="O33">
+        <v>0.08209856000000003</v>
+      </c>
+      <c r="P33">
+        <v>0.4310174400000001</v>
+      </c>
+      <c r="Q33">
+        <v>0.8770174400000001</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.05978304253518256</v>
+      </c>
+      <c r="T33">
+        <v>0.7367748121529375</v>
+      </c>
+      <c r="U33">
+        <v>0.02</v>
+      </c>
+      <c r="V33">
+        <v>0.16</v>
+      </c>
+      <c r="W33">
+        <v>0.0168</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>9.427764273043824</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.04647465743117955</v>
+      </c>
+      <c r="C34">
+        <v>9.217133871115982</v>
+      </c>
+      <c r="D34">
+        <v>12.26853387111598</v>
+      </c>
+      <c r="E34">
+        <v>-0.6675999999999997</v>
+      </c>
+      <c r="F34">
+        <v>3.1424</v>
+      </c>
+      <c r="G34">
+        <v>0.091</v>
+      </c>
+      <c r="H34">
+        <v>6.01</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1.02</v>
+      </c>
+      <c r="K34">
+        <v>0.446</v>
+      </c>
+      <c r="L34">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M34">
+        <v>0.062848</v>
+      </c>
+      <c r="N34">
+        <v>0.5111520000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.08178432000000001</v>
+      </c>
+      <c r="P34">
+        <v>0.42936768</v>
+      </c>
+      <c r="Q34">
+        <v>0.8753676800000001</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.06043920210467581</v>
+      </c>
+      <c r="T34">
+        <v>0.7463511336121446</v>
+      </c>
+      <c r="U34">
+        <v>0.02</v>
+      </c>
+      <c r="V34">
+        <v>0.16</v>
+      </c>
+      <c r="W34">
+        <v>0.0168</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>9.133146639511203</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.04649101551308311</v>
+      </c>
+      <c r="C35">
+        <v>9.113537683915077</v>
+      </c>
+      <c r="D35">
+        <v>12.26313768391508</v>
+      </c>
+      <c r="E35">
+        <v>-0.5693999999999999</v>
+      </c>
+      <c r="F35">
+        <v>3.2406</v>
+      </c>
+      <c r="G35">
+        <v>0.091</v>
+      </c>
+      <c r="H35">
+        <v>6.01</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1.02</v>
+      </c>
+      <c r="K35">
+        <v>0.446</v>
+      </c>
+      <c r="L35">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M35">
+        <v>0.06481199999999999</v>
+      </c>
+      <c r="N35">
+        <v>0.5091880000000001</v>
+      </c>
+      <c r="O35">
+        <v>0.08147008000000001</v>
+      </c>
+      <c r="P35">
+        <v>0.4277179200000001</v>
+      </c>
+      <c r="Q35">
+        <v>0.87371792</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.06111494852698973</v>
+      </c>
+      <c r="T35">
+        <v>0.7562133154134175</v>
+      </c>
+      <c r="U35">
+        <v>0.02</v>
+      </c>
+      <c r="V35">
+        <v>0.16</v>
+      </c>
+      <c r="W35">
+        <v>0.0168</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>8.856384620132076</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.0465073735949867</v>
+      </c>
+      <c r="C36">
+        <v>9.009946241540991</v>
+      </c>
+      <c r="D36">
+        <v>12.25774624154099</v>
+      </c>
+      <c r="E36">
+        <v>-0.4711999999999996</v>
+      </c>
+      <c r="F36">
+        <v>3.3388</v>
+      </c>
+      <c r="G36">
+        <v>0.091</v>
+      </c>
+      <c r="H36">
+        <v>6.01</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1.02</v>
+      </c>
+      <c r="K36">
+        <v>0.446</v>
+      </c>
+      <c r="L36">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M36">
+        <v>0.066776</v>
+      </c>
+      <c r="N36">
+        <v>0.5072240000000001</v>
+      </c>
+      <c r="O36">
+        <v>0.08115584000000002</v>
+      </c>
+      <c r="P36">
+        <v>0.4260681600000001</v>
+      </c>
+      <c r="Q36">
+        <v>0.8720681600000001</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.06181117211361621</v>
+      </c>
+      <c r="T36">
+        <v>0.7663743512086686</v>
+      </c>
+      <c r="U36">
+        <v>0.02</v>
+      </c>
+      <c r="V36">
+        <v>0.16</v>
+      </c>
+      <c r="W36">
+        <v>0.0168</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>8.595902719539957</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.04652373167689026</v>
+      </c>
+      <c r="C37">
+        <v>8.906359537738354</v>
+      </c>
+      <c r="D37">
+        <v>12.25235953773835</v>
+      </c>
+      <c r="E37">
+        <v>-0.3729999999999998</v>
+      </c>
+      <c r="F37">
+        <v>3.437</v>
+      </c>
+      <c r="G37">
+        <v>0.091</v>
+      </c>
+      <c r="H37">
+        <v>6.01</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1.02</v>
+      </c>
+      <c r="K37">
+        <v>0.446</v>
+      </c>
+      <c r="L37">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M37">
+        <v>0.06874</v>
+      </c>
+      <c r="N37">
+        <v>0.50526</v>
+      </c>
+      <c r="O37">
+        <v>0.08084160000000001</v>
+      </c>
+      <c r="P37">
+        <v>0.4244184</v>
+      </c>
+      <c r="Q37">
+        <v>0.8704184</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.06252881796444658</v>
+      </c>
+      <c r="T37">
+        <v>0.7768480342591579</v>
+      </c>
+      <c r="U37">
+        <v>0.02</v>
+      </c>
+      <c r="V37">
+        <v>0.16</v>
+      </c>
+      <c r="W37">
+        <v>0.0168</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>8.350305498981671</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.04654008975879385</v>
+      </c>
+      <c r="C38">
+        <v>8.802777566262758</v>
+      </c>
+      <c r="D38">
+        <v>12.24697756626276</v>
+      </c>
+      <c r="E38">
+        <v>-0.2747999999999999</v>
+      </c>
+      <c r="F38">
+        <v>3.5352</v>
+      </c>
+      <c r="G38">
+        <v>0.091</v>
+      </c>
+      <c r="H38">
+        <v>6.01</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1.02</v>
+      </c>
+      <c r="K38">
+        <v>0.446</v>
+      </c>
+      <c r="L38">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M38">
+        <v>0.07070399999999999</v>
+      </c>
+      <c r="N38">
+        <v>0.5032960000000001</v>
+      </c>
+      <c r="O38">
+        <v>0.08052736000000002</v>
+      </c>
+      <c r="P38">
+        <v>0.42276864</v>
+      </c>
+      <c r="Q38">
+        <v>0.8687686400000001</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.06326889024811538</v>
+      </c>
+      <c r="T38">
+        <v>0.787649019904975</v>
+      </c>
+      <c r="U38">
+        <v>0.02</v>
+      </c>
+      <c r="V38">
+        <v>0.16</v>
+      </c>
+      <c r="W38">
+        <v>0.0168</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>8.118352568454403</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.04689832784069742</v>
+      </c>
+      <c r="C39">
+        <v>8.587887968495457</v>
+      </c>
+      <c r="D39">
+        <v>12.13028796849546</v>
+      </c>
+      <c r="E39">
+        <v>-0.1766000000000001</v>
+      </c>
+      <c r="F39">
+        <v>3.6334</v>
+      </c>
+      <c r="G39">
+        <v>0.091</v>
+      </c>
+      <c r="H39">
+        <v>6.01</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1.02</v>
+      </c>
+      <c r="K39">
+        <v>0.446</v>
+      </c>
+      <c r="L39">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M39">
+        <v>0.07666474</v>
+      </c>
+      <c r="N39">
+        <v>0.4973352600000001</v>
+      </c>
+      <c r="O39">
+        <v>0.07957364160000001</v>
+      </c>
+      <c r="P39">
+        <v>0.4177616184</v>
+      </c>
+      <c r="Q39">
+        <v>0.8637616184000001</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.06403245688999591</v>
+      </c>
+      <c r="T39">
+        <v>0.7987928939839929</v>
+      </c>
+      <c r="U39">
+        <v>0.0211</v>
+      </c>
+      <c r="V39">
+        <v>0.16</v>
+      </c>
+      <c r="W39">
+        <v>0.017724</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>7.487144676940144</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.04692392592260099</v>
+      </c>
+      <c r="C40">
+        <v>8.481434919476325</v>
+      </c>
+      <c r="D40">
+        <v>12.12203491947633</v>
+      </c>
+      <c r="E40">
+        <v>-0.0783999999999998</v>
+      </c>
+      <c r="F40">
+        <v>3.7316</v>
+      </c>
+      <c r="G40">
+        <v>0.091</v>
+      </c>
+      <c r="H40">
+        <v>6.01</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1.02</v>
+      </c>
+      <c r="K40">
+        <v>0.446</v>
+      </c>
+      <c r="L40">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M40">
+        <v>0.07873676</v>
+      </c>
+      <c r="N40">
+        <v>0.49526324</v>
+      </c>
+      <c r="O40">
+        <v>0.07924211840000001</v>
+      </c>
+      <c r="P40">
+        <v>0.4160211216</v>
+      </c>
+      <c r="Q40">
+        <v>0.8620211216</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.06482065471387258</v>
+      </c>
+      <c r="T40">
+        <v>0.8102962478720112</v>
+      </c>
+      <c r="U40">
+        <v>0.0211</v>
+      </c>
+      <c r="V40">
+        <v>0.16</v>
+      </c>
+      <c r="W40">
+        <v>0.017724</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>7.290114553862771</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.04694952400450457</v>
+      </c>
+      <c r="C41">
+        <v>8.37499309302801</v>
+      </c>
+      <c r="D41">
+        <v>12.11379309302801</v>
+      </c>
+      <c r="E41">
+        <v>0.01980000000000004</v>
+      </c>
+      <c r="F41">
+        <v>3.8298</v>
+      </c>
+      <c r="G41">
+        <v>0.091</v>
+      </c>
+      <c r="H41">
+        <v>6.01</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>1.02</v>
+      </c>
+      <c r="K41">
+        <v>0.446</v>
+      </c>
+      <c r="L41">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M41">
+        <v>0.08080878000000001</v>
+      </c>
+      <c r="N41">
+        <v>0.49319122</v>
+      </c>
+      <c r="O41">
+        <v>0.0789105952</v>
+      </c>
+      <c r="P41">
+        <v>0.4142806248000001</v>
+      </c>
+      <c r="Q41">
+        <v>0.8602806248000001</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.06563469508935176</v>
+      </c>
+      <c r="T41">
+        <v>0.8221767609038989</v>
+      </c>
+      <c r="U41">
+        <v>0.0211</v>
+      </c>
+      <c r="V41">
+        <v>0.16</v>
+      </c>
+      <c r="W41">
+        <v>0.017724</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>7.10318853966116</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.04697512208640815</v>
+      </c>
+      <c r="C42">
+        <v>8.268562466275236</v>
+      </c>
+      <c r="D42">
+        <v>12.10556246627524</v>
+      </c>
+      <c r="E42">
+        <v>0.1180000000000003</v>
+      </c>
+      <c r="F42">
+        <v>3.928</v>
+      </c>
+      <c r="G42">
+        <v>0.091</v>
+      </c>
+      <c r="H42">
+        <v>6.01</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1.02</v>
+      </c>
+      <c r="K42">
+        <v>0.446</v>
+      </c>
+      <c r="L42">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M42">
+        <v>0.0828808</v>
+      </c>
+      <c r="N42">
+        <v>0.4911192000000001</v>
+      </c>
+      <c r="O42">
+        <v>0.07857907200000001</v>
+      </c>
+      <c r="P42">
+        <v>0.4125401280000001</v>
+      </c>
+      <c r="Q42">
+        <v>0.858540128</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.06647587014401359</v>
+      </c>
+      <c r="T42">
+        <v>0.8344532910368497</v>
+      </c>
+      <c r="U42">
+        <v>0.0211</v>
+      </c>
+      <c r="V42">
+        <v>0.16</v>
+      </c>
+      <c r="W42">
+        <v>0.017724</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>6.925608826169633</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.04700072016831173</v>
+      </c>
+      <c r="C43">
+        <v>8.162143016404862</v>
+      </c>
+      <c r="D43">
+        <v>12.09734301640486</v>
+      </c>
+      <c r="E43">
+        <v>0.2162000000000002</v>
+      </c>
+      <c r="F43">
+        <v>4.0262</v>
+      </c>
+      <c r="G43">
+        <v>0.091</v>
+      </c>
+      <c r="H43">
+        <v>6.01</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1.02</v>
+      </c>
+      <c r="K43">
+        <v>0.446</v>
+      </c>
+      <c r="L43">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M43">
+        <v>0.08495282000000001</v>
+      </c>
+      <c r="N43">
+        <v>0.48904718</v>
+      </c>
+      <c r="O43">
+        <v>0.07824754880000001</v>
+      </c>
+      <c r="P43">
+        <v>0.4107996312</v>
+      </c>
+      <c r="Q43">
+        <v>0.8567996312</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.06734555960730801</v>
+      </c>
+      <c r="T43">
+        <v>0.8471459747336292</v>
+      </c>
+      <c r="U43">
+        <v>0.0211</v>
+      </c>
+      <c r="V43">
+        <v>0.16</v>
+      </c>
+      <c r="W43">
+        <v>0.017724</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>6.75669153772647</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.0470263182502153</v>
+      </c>
+      <c r="C44">
+        <v>8.055734720665644</v>
+      </c>
+      <c r="D44">
+        <v>12.08913472066564</v>
+      </c>
+      <c r="E44">
+        <v>0.3143999999999996</v>
+      </c>
+      <c r="F44">
+        <v>4.1244</v>
+      </c>
+      <c r="G44">
+        <v>0.091</v>
+      </c>
+      <c r="H44">
+        <v>6.01</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1.02</v>
+      </c>
+      <c r="K44">
+        <v>0.446</v>
+      </c>
+      <c r="L44">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M44">
+        <v>0.08702483999999999</v>
+      </c>
+      <c r="N44">
+        <v>0.4869751600000001</v>
+      </c>
+      <c r="O44">
+        <v>0.07791602560000001</v>
+      </c>
+      <c r="P44">
+        <v>0.4090591344000001</v>
+      </c>
+      <c r="Q44">
+        <v>0.8550591344</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.06824523836244017</v>
+      </c>
+      <c r="T44">
+        <v>0.8602763371785735</v>
+      </c>
+      <c r="U44">
+        <v>0.0211</v>
+      </c>
+      <c r="V44">
+        <v>0.16</v>
+      </c>
+      <c r="W44">
+        <v>0.017724</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>6.595817929685365</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.04705191633211889</v>
+      </c>
+      <c r="C45">
+        <v>7.949337556368059</v>
+      </c>
+      <c r="D45">
+        <v>12.08093755636806</v>
+      </c>
+      <c r="E45">
+        <v>0.4125999999999999</v>
+      </c>
+      <c r="F45">
+        <v>4.2226</v>
+      </c>
+      <c r="G45">
+        <v>0.091</v>
+      </c>
+      <c r="H45">
+        <v>6.01</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1.02</v>
+      </c>
+      <c r="K45">
+        <v>0.446</v>
+      </c>
+      <c r="L45">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M45">
+        <v>0.08909686</v>
+      </c>
+      <c r="N45">
+        <v>0.4849031400000001</v>
+      </c>
+      <c r="O45">
+        <v>0.07758450240000002</v>
+      </c>
+      <c r="P45">
+        <v>0.4073186376</v>
+      </c>
+      <c r="Q45">
+        <v>0.8533186376</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.06917648479319102</v>
+      </c>
+      <c r="T45">
+        <v>0.8738674140952704</v>
+      </c>
+      <c r="U45">
+        <v>0.0211</v>
+      </c>
+      <c r="V45">
+        <v>0.16</v>
+      </c>
+      <c r="W45">
+        <v>0.017724</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>6.442426815041518</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.04763191441402246</v>
+      </c>
+      <c r="C46">
+        <v>7.668341556809866</v>
+      </c>
+      <c r="D46">
+        <v>11.89814155680987</v>
+      </c>
+      <c r="E46">
+        <v>0.5108000000000001</v>
+      </c>
+      <c r="F46">
+        <v>4.3208</v>
+      </c>
+      <c r="G46">
+        <v>0.091</v>
+      </c>
+      <c r="H46">
+        <v>6.01</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>1.02</v>
+      </c>
+      <c r="K46">
+        <v>0.446</v>
+      </c>
+      <c r="L46">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M46">
+        <v>0.09765008</v>
+      </c>
+      <c r="N46">
+        <v>0.4763499200000001</v>
+      </c>
+      <c r="O46">
+        <v>0.07621598720000002</v>
+      </c>
+      <c r="P46">
+        <v>0.4001339328000001</v>
+      </c>
+      <c r="Q46">
+        <v>0.8461339328000002</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.0701409900250401</v>
+      </c>
+      <c r="T46">
+        <v>0.8879438866161349</v>
+      </c>
+      <c r="U46">
+        <v>0.0226</v>
+      </c>
+      <c r="V46">
+        <v>0.16</v>
+      </c>
+      <c r="W46">
+        <v>0.018984</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>5.878131385043413</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.04767011249592604</v>
+      </c>
+      <c r="C47">
+        <v>7.558296760010387</v>
+      </c>
+      <c r="D47">
+        <v>11.88629676001039</v>
+      </c>
+      <c r="E47">
+        <v>0.6090000000000004</v>
+      </c>
+      <c r="F47">
+        <v>4.419</v>
+      </c>
+      <c r="G47">
+        <v>0.091</v>
+      </c>
+      <c r="H47">
+        <v>6.01</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1.02</v>
+      </c>
+      <c r="K47">
+        <v>0.446</v>
+      </c>
+      <c r="L47">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M47">
+        <v>0.09986940000000001</v>
+      </c>
+      <c r="N47">
+        <v>0.4741306000000001</v>
+      </c>
+      <c r="O47">
+        <v>0.07586089600000001</v>
+      </c>
+      <c r="P47">
+        <v>0.3982697040000001</v>
+      </c>
+      <c r="Q47">
+        <v>0.844269704</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.07114056817441096</v>
+      </c>
+      <c r="T47">
+        <v>0.9025322308650308</v>
+      </c>
+      <c r="U47">
+        <v>0.0226</v>
+      </c>
+      <c r="V47">
+        <v>0.16</v>
+      </c>
+      <c r="W47">
+        <v>0.018984</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>5.747506243153559</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.04770831057782961</v>
+      </c>
+      <c r="C48">
+        <v>7.448275523139031</v>
+      </c>
+      <c r="D48">
+        <v>11.87447552313903</v>
+      </c>
+      <c r="E48">
+        <v>0.7072000000000007</v>
+      </c>
+      <c r="F48">
+        <v>4.517200000000001</v>
+      </c>
+      <c r="G48">
+        <v>0.091</v>
+      </c>
+      <c r="H48">
+        <v>6.01</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1.02</v>
+      </c>
+      <c r="K48">
+        <v>0.446</v>
+      </c>
+      <c r="L48">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M48">
+        <v>0.10208872</v>
+      </c>
+      <c r="N48">
+        <v>0.47191128</v>
+      </c>
+      <c r="O48">
+        <v>0.07550580480000001</v>
+      </c>
+      <c r="P48">
+        <v>0.3964054752</v>
+      </c>
+      <c r="Q48">
+        <v>0.8424054752000001</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.0721771677367215</v>
+      </c>
+      <c r="T48">
+        <v>0.9176608841601823</v>
+      </c>
+      <c r="U48">
+        <v>0.0226</v>
+      </c>
+      <c r="V48">
+        <v>0.16</v>
+      </c>
+      <c r="W48">
+        <v>0.018984</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>5.622560455258916</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.04774650865973319</v>
+      </c>
+      <c r="C49">
+        <v>7.338277775972723</v>
+      </c>
+      <c r="D49">
+        <v>11.86267777597272</v>
+      </c>
+      <c r="E49">
+        <v>0.8054000000000001</v>
+      </c>
+      <c r="F49">
+        <v>4.6154</v>
+      </c>
+      <c r="G49">
+        <v>0.091</v>
+      </c>
+      <c r="H49">
+        <v>6.01</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1.02</v>
+      </c>
+      <c r="K49">
+        <v>0.446</v>
+      </c>
+      <c r="L49">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M49">
+        <v>0.10430804</v>
+      </c>
+      <c r="N49">
+        <v>0.4696919600000001</v>
+      </c>
+      <c r="O49">
+        <v>0.07515071360000002</v>
+      </c>
+      <c r="P49">
+        <v>0.3945412464</v>
+      </c>
+      <c r="Q49">
+        <v>0.8405412464000001</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.07325288426364752</v>
+      </c>
+      <c r="T49">
+        <v>0.9333604300325092</v>
+      </c>
+      <c r="U49">
+        <v>0.0226</v>
+      </c>
+      <c r="V49">
+        <v>0.16</v>
+      </c>
+      <c r="W49">
+        <v>0.018984</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>5.502931509402345</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.04778470674163677</v>
+      </c>
+      <c r="C50">
+        <v>7.228303448567178</v>
+      </c>
+      <c r="D50">
+        <v>11.85090344856718</v>
+      </c>
+      <c r="E50">
+        <v>0.9035999999999995</v>
+      </c>
+      <c r="F50">
+        <v>4.7136</v>
+      </c>
+      <c r="G50">
+        <v>0.091</v>
+      </c>
+      <c r="H50">
+        <v>6.01</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1.02</v>
+      </c>
+      <c r="K50">
+        <v>0.446</v>
+      </c>
+      <c r="L50">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M50">
+        <v>0.10652736</v>
+      </c>
+      <c r="N50">
+        <v>0.4674726400000001</v>
+      </c>
+      <c r="O50">
+        <v>0.07479562240000003</v>
+      </c>
+      <c r="P50">
+        <v>0.3926770176000001</v>
+      </c>
+      <c r="Q50">
+        <v>0.8386770176</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.07436997450314763</v>
+      </c>
+      <c r="T50">
+        <v>0.9496638045922333</v>
+      </c>
+      <c r="U50">
+        <v>0.0226</v>
+      </c>
+      <c r="V50">
+        <v>0.16</v>
+      </c>
+      <c r="W50">
+        <v>0.018984</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>5.388287102956463</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.04782290482354033</v>
+      </c>
+      <c r="C51">
+        <v>7.118352471255545</v>
+      </c>
+      <c r="D51">
+        <v>11.83915247125555</v>
+      </c>
+      <c r="E51">
+        <v>1.0018</v>
+      </c>
+      <c r="F51">
+        <v>4.8118</v>
+      </c>
+      <c r="G51">
+        <v>0.091</v>
+      </c>
+      <c r="H51">
+        <v>6.01</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>1.02</v>
+      </c>
+      <c r="K51">
+        <v>0.446</v>
+      </c>
+      <c r="L51">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M51">
+        <v>0.10874668</v>
+      </c>
+      <c r="N51">
+        <v>0.4652533200000001</v>
+      </c>
+      <c r="O51">
+        <v>0.07444053120000002</v>
+      </c>
+      <c r="P51">
+        <v>0.3908127888</v>
+      </c>
+      <c r="Q51">
+        <v>0.8368127888000001</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.07553087220302027</v>
+      </c>
+      <c r="T51">
+        <v>0.9666065271739074</v>
+      </c>
+      <c r="U51">
+        <v>0.0226</v>
+      </c>
+      <c r="V51">
+        <v>0.16</v>
+      </c>
+      <c r="W51">
+        <v>0.018984</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>5.278322060038984</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.04786110290544392</v>
+      </c>
+      <c r="C52">
+        <v>7.008424774646999</v>
+      </c>
+      <c r="D52">
+        <v>11.827424774647</v>
+      </c>
+      <c r="E52">
+        <v>1.1</v>
+      </c>
+      <c r="F52">
+        <v>4.91</v>
+      </c>
+      <c r="G52">
+        <v>0.091</v>
+      </c>
+      <c r="H52">
+        <v>6.01</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>1.02</v>
+      </c>
+      <c r="K52">
+        <v>0.446</v>
+      </c>
+      <c r="L52">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M52">
+        <v>0.110966</v>
+      </c>
+      <c r="N52">
+        <v>0.4630340000000001</v>
+      </c>
+      <c r="O52">
+        <v>0.07408544000000002</v>
+      </c>
+      <c r="P52">
+        <v>0.3889485600000001</v>
+      </c>
+      <c r="Q52">
+        <v>0.8349485600000001</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.07673820581088783</v>
+      </c>
+      <c r="T52">
+        <v>0.9842269586588483</v>
+      </c>
+      <c r="U52">
+        <v>0.0226</v>
+      </c>
+      <c r="V52">
+        <v>0.16</v>
+      </c>
+      <c r="W52">
+        <v>0.018984</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>5.172755618838203</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.04789930098734749</v>
+      </c>
+      <c r="C53">
+        <v>6.898520289625408</v>
+      </c>
+      <c r="D53">
+        <v>11.81572028962541</v>
+      </c>
+      <c r="E53">
+        <v>1.1982</v>
+      </c>
+      <c r="F53">
+        <v>5.0082</v>
+      </c>
+      <c r="G53">
+        <v>0.091</v>
+      </c>
+      <c r="H53">
+        <v>6.01</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>1.02</v>
+      </c>
+      <c r="K53">
+        <v>0.446</v>
+      </c>
+      <c r="L53">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M53">
+        <v>0.11318532</v>
+      </c>
+      <c r="N53">
+        <v>0.46081468</v>
+      </c>
+      <c r="O53">
+        <v>0.07373034880000001</v>
+      </c>
+      <c r="P53">
+        <v>0.3870843312</v>
+      </c>
+      <c r="Q53">
+        <v>0.8330843312</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.0779948183415255</v>
+      </c>
+      <c r="T53">
+        <v>1.002566591428889</v>
+      </c>
+      <c r="U53">
+        <v>0.0226</v>
+      </c>
+      <c r="V53">
+        <v>0.16</v>
+      </c>
+      <c r="W53">
+        <v>0.018984</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>5.071329038076669</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.04793749906925106</v>
+      </c>
+      <c r="C54">
+        <v>6.788638947347948</v>
+      </c>
+      <c r="D54">
+        <v>11.80403894734795</v>
+      </c>
+      <c r="E54">
+        <v>1.296400000000001</v>
+      </c>
+      <c r="F54">
+        <v>5.106400000000001</v>
+      </c>
+      <c r="G54">
+        <v>0.091</v>
+      </c>
+      <c r="H54">
+        <v>6.01</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1.02</v>
+      </c>
+      <c r="K54">
+        <v>0.446</v>
+      </c>
+      <c r="L54">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M54">
+        <v>0.11540464</v>
+      </c>
+      <c r="N54">
+        <v>0.4585953600000001</v>
+      </c>
+      <c r="O54">
+        <v>0.07337525760000001</v>
+      </c>
+      <c r="P54">
+        <v>0.3852201024</v>
+      </c>
+      <c r="Q54">
+        <v>0.8312201024000001</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.07930378972760639</v>
+      </c>
+      <c r="T54">
+        <v>1.021670375564348</v>
+      </c>
+      <c r="U54">
+        <v>0.0226</v>
+      </c>
+      <c r="V54">
+        <v>0.16</v>
+      </c>
+      <c r="W54">
+        <v>0.018984</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>4.973803479652118</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.04797569715115464</v>
+      </c>
+      <c r="C55">
+        <v>6.678780679243782</v>
+      </c>
+      <c r="D55">
+        <v>11.79238067924378</v>
+      </c>
+      <c r="E55">
+        <v>1.3946</v>
+      </c>
+      <c r="F55">
+        <v>5.2046</v>
+      </c>
+      <c r="G55">
+        <v>0.091</v>
+      </c>
+      <c r="H55">
+        <v>6.01</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>1.02</v>
+      </c>
+      <c r="K55">
+        <v>0.446</v>
+      </c>
+      <c r="L55">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M55">
+        <v>0.11762396</v>
+      </c>
+      <c r="N55">
+        <v>0.4563760400000001</v>
+      </c>
+      <c r="O55">
+        <v>0.07302016640000002</v>
+      </c>
+      <c r="P55">
+        <v>0.3833558736000001</v>
+      </c>
+      <c r="Q55">
+        <v>0.8293558736000001</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.08066846202373328</v>
+      </c>
+      <c r="T55">
+        <v>1.041587086684295</v>
+      </c>
+      <c r="U55">
+        <v>0.0226</v>
+      </c>
+      <c r="V55">
+        <v>0.16</v>
+      </c>
+      <c r="W55">
+        <v>0.018984</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>4.879958130979437</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.04801389523305821</v>
+      </c>
+      <c r="C56">
+        <v>6.568945417012684</v>
+      </c>
+      <c r="D56">
+        <v>11.78074541701269</v>
+      </c>
+      <c r="E56">
+        <v>1.4928</v>
+      </c>
+      <c r="F56">
+        <v>5.3028</v>
+      </c>
+      <c r="G56">
+        <v>0.091</v>
+      </c>
+      <c r="H56">
+        <v>6.01</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>1.02</v>
+      </c>
+      <c r="K56">
+        <v>0.446</v>
+      </c>
+      <c r="L56">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M56">
+        <v>0.11984328</v>
+      </c>
+      <c r="N56">
+        <v>0.4541567200000001</v>
+      </c>
+      <c r="O56">
+        <v>0.07266507520000001</v>
+      </c>
+      <c r="P56">
+        <v>0.3814916448000001</v>
+      </c>
+      <c r="Q56">
+        <v>0.8274916448</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.08209246789795265</v>
+      </c>
+      <c r="T56">
+        <v>1.062369741765978</v>
+      </c>
+      <c r="U56">
+        <v>0.0226</v>
+      </c>
+      <c r="V56">
+        <v>0.16</v>
+      </c>
+      <c r="W56">
+        <v>0.018984</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>4.7895885359613</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.04805209331496178</v>
+      </c>
+      <c r="C57">
+        <v>6.459133092623733</v>
+      </c>
+      <c r="D57">
+        <v>11.76913309262373</v>
+      </c>
+      <c r="E57">
+        <v>1.591000000000001</v>
+      </c>
+      <c r="F57">
+        <v>5.401000000000001</v>
+      </c>
+      <c r="G57">
+        <v>0.091</v>
+      </c>
+      <c r="H57">
+        <v>6.01</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1.02</v>
+      </c>
+      <c r="K57">
+        <v>0.446</v>
+      </c>
+      <c r="L57">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M57">
+        <v>0.1220626</v>
+      </c>
+      <c r="N57">
+        <v>0.4519374</v>
+      </c>
+      <c r="O57">
+        <v>0.07230998400000001</v>
+      </c>
+      <c r="P57">
+        <v>0.3796274160000001</v>
+      </c>
+      <c r="Q57">
+        <v>0.8256274160000001</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.08357976292213731</v>
+      </c>
+      <c r="T57">
+        <v>1.084076070406848</v>
+      </c>
+      <c r="U57">
+        <v>0.0226</v>
+      </c>
+      <c r="V57">
+        <v>0.16</v>
+      </c>
+      <c r="W57">
+        <v>0.018984</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>4.70250510803473</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.04809029139686537</v>
+      </c>
+      <c r="C58">
+        <v>6.349343638313976</v>
+      </c>
+      <c r="D58">
+        <v>11.75754363831398</v>
+      </c>
+      <c r="E58">
+        <v>1.689200000000001</v>
+      </c>
+      <c r="F58">
+        <v>5.499200000000001</v>
+      </c>
+      <c r="G58">
+        <v>0.091</v>
+      </c>
+      <c r="H58">
+        <v>6.01</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>1.02</v>
+      </c>
+      <c r="K58">
+        <v>0.446</v>
+      </c>
+      <c r="L58">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M58">
+        <v>0.12428192</v>
+      </c>
+      <c r="N58">
+        <v>0.44971808</v>
+      </c>
+      <c r="O58">
+        <v>0.0719548928</v>
+      </c>
+      <c r="P58">
+        <v>0.3777631872</v>
+      </c>
+      <c r="Q58">
+        <v>0.8237631872</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.08513466226560311</v>
+      </c>
+      <c r="T58">
+        <v>1.106769050349575</v>
+      </c>
+      <c r="U58">
+        <v>0.0226</v>
+      </c>
+      <c r="V58">
+        <v>0.16</v>
+      </c>
+      <c r="W58">
+        <v>0.018984</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>4.618531802534109</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.04812848947876894</v>
+      </c>
+      <c r="C59">
+        <v>6.239576986587108</v>
+      </c>
+      <c r="D59">
+        <v>11.74597698658711</v>
+      </c>
+      <c r="E59">
+        <v>1.7874</v>
+      </c>
+      <c r="F59">
+        <v>5.5974</v>
+      </c>
+      <c r="G59">
+        <v>0.091</v>
+      </c>
+      <c r="H59">
+        <v>6.01</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1.02</v>
+      </c>
+      <c r="K59">
+        <v>0.446</v>
+      </c>
+      <c r="L59">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M59">
+        <v>0.12650124</v>
+      </c>
+      <c r="N59">
+        <v>0.4474987600000001</v>
+      </c>
+      <c r="O59">
+        <v>0.07159980160000001</v>
+      </c>
+      <c r="P59">
+        <v>0.3758989584000001</v>
+      </c>
+      <c r="Q59">
+        <v>0.8218989584</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.086761882508765</v>
+      </c>
+      <c r="T59">
+        <v>1.130517517731498</v>
+      </c>
+      <c r="U59">
+        <v>0.0226</v>
+      </c>
+      <c r="V59">
+        <v>0.16</v>
+      </c>
+      <c r="W59">
+        <v>0.018984</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>4.537504928805442</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.09128013599263517</v>
+      </c>
+      <c r="C60">
+        <v>-0.04131886708589416</v>
+      </c>
+      <c r="D60">
+        <v>5.563281132914105</v>
+      </c>
+      <c r="E60">
+        <v>1.8856</v>
+      </c>
+      <c r="F60">
+        <v>5.6956</v>
+      </c>
+      <c r="G60">
+        <v>0.091</v>
+      </c>
+      <c r="H60">
+        <v>6.01</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1.02</v>
+      </c>
+      <c r="K60">
+        <v>0.446</v>
+      </c>
+      <c r="L60">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M60">
+        <v>0.6208203999999999</v>
+      </c>
+      <c r="N60">
+        <v>-0.04682039999999987</v>
+      </c>
+      <c r="O60">
+        <v>-0.00749126399999998</v>
+      </c>
+      <c r="P60">
+        <v>-0.03932913599999989</v>
+      </c>
+      <c r="Q60">
+        <v>0.4066708640000001</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.08907732893213009</v>
+      </c>
+      <c r="T60">
+        <v>1.164310302753045</v>
+      </c>
+      <c r="U60">
+        <v>0.109</v>
+      </c>
+      <c r="V60">
+        <v>0.1479332831202068</v>
+      </c>
+      <c r="W60">
+        <v>0.09287527213989746</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.9245830195012924</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.09227713599263518</v>
+      </c>
+      <c r="C61">
+        <v>-0.2063636819034098</v>
+      </c>
+      <c r="D61">
+        <v>5.49643631809659</v>
+      </c>
+      <c r="E61">
+        <v>1.9838</v>
+      </c>
+      <c r="F61">
+        <v>5.7938</v>
+      </c>
+      <c r="G61">
+        <v>0.091</v>
+      </c>
+      <c r="H61">
+        <v>6.01</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1.02</v>
+      </c>
+      <c r="K61">
+        <v>0.446</v>
+      </c>
+      <c r="L61">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M61">
+        <v>0.6315242</v>
+      </c>
+      <c r="N61">
+        <v>-0.05752419999999991</v>
+      </c>
+      <c r="O61">
+        <v>-0.009203871999999986</v>
+      </c>
+      <c r="P61">
+        <v>-0.04832032799999993</v>
+      </c>
+      <c r="Q61">
+        <v>0.3976796720000001</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.09102311744266986</v>
+      </c>
+      <c r="T61">
+        <v>1.192708115015314</v>
+      </c>
+      <c r="U61">
+        <v>0.109</v>
+      </c>
+      <c r="V61">
+        <v>0.1454259393385084</v>
+      </c>
+      <c r="W61">
+        <v>0.09314857261210259</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.9089121208656772</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.09327413599263518</v>
+      </c>
+      <c r="C62">
+        <v>-0.3698212394163916</v>
+      </c>
+      <c r="D62">
+        <v>5.431178760583609</v>
+      </c>
+      <c r="E62">
+        <v>2.082</v>
+      </c>
+      <c r="F62">
+        <v>5.892</v>
+      </c>
+      <c r="G62">
+        <v>0.091</v>
+      </c>
+      <c r="H62">
+        <v>6.01</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1.02</v>
+      </c>
+      <c r="K62">
+        <v>0.446</v>
+      </c>
+      <c r="L62">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M62">
+        <v>0.642228</v>
+      </c>
+      <c r="N62">
+        <v>-0.06822799999999996</v>
+      </c>
+      <c r="O62">
+        <v>-0.01091647999999999</v>
+      </c>
+      <c r="P62">
+        <v>-0.05731151999999996</v>
+      </c>
+      <c r="Q62">
+        <v>0.3886884800000001</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.0930661953787366</v>
+      </c>
+      <c r="T62">
+        <v>1.222525817890697</v>
+      </c>
+      <c r="U62">
+        <v>0.109</v>
+      </c>
+      <c r="V62">
+        <v>0.1430021736828665</v>
+      </c>
+      <c r="W62">
+        <v>0.09341276306856755</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.8937635855179158</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.09427113599263517</v>
+      </c>
+      <c r="C63">
+        <v>-0.5317474113810823</v>
+      </c>
+      <c r="D63">
+        <v>5.367452588618917</v>
+      </c>
+      <c r="E63">
+        <v>2.1802</v>
+      </c>
+      <c r="F63">
+        <v>5.9902</v>
+      </c>
+      <c r="G63">
+        <v>0.091</v>
+      </c>
+      <c r="H63">
+        <v>6.01</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1.02</v>
+      </c>
+      <c r="K63">
+        <v>0.446</v>
+      </c>
+      <c r="L63">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M63">
+        <v>0.6529318</v>
+      </c>
+      <c r="N63">
+        <v>-0.07893179999999989</v>
+      </c>
+      <c r="O63">
+        <v>-0.01262908799999998</v>
+      </c>
+      <c r="P63">
+        <v>-0.0663027119999999</v>
+      </c>
+      <c r="Q63">
+        <v>0.3796972880000001</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.09521404654229396</v>
+      </c>
+      <c r="T63">
+        <v>1.253872633734048</v>
+      </c>
+      <c r="U63">
+        <v>0.109</v>
+      </c>
+      <c r="V63">
+        <v>0.1406578757536392</v>
+      </c>
+      <c r="W63">
+        <v>0.09366829154285333</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.8791117234602451</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.09526813599263517</v>
+      </c>
+      <c r="C64">
+        <v>-0.6921954777031383</v>
+      </c>
+      <c r="D64">
+        <v>5.305204522296862</v>
+      </c>
+      <c r="E64">
+        <v>2.2784</v>
+      </c>
+      <c r="F64">
+        <v>6.0884</v>
+      </c>
+      <c r="G64">
+        <v>0.091</v>
+      </c>
+      <c r="H64">
+        <v>6.01</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1.02</v>
+      </c>
+      <c r="K64">
+        <v>0.446</v>
+      </c>
+      <c r="L64">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M64">
+        <v>0.6636356</v>
+      </c>
+      <c r="N64">
+        <v>-0.08963559999999993</v>
+      </c>
+      <c r="O64">
+        <v>-0.01434169599999999</v>
+      </c>
+      <c r="P64">
+        <v>-0.07529390399999994</v>
+      </c>
+      <c r="Q64">
+        <v>0.370706096</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.09747494250393328</v>
+      </c>
+      <c r="T64">
+        <v>1.286869281990208</v>
+      </c>
+      <c r="U64">
+        <v>0.109</v>
+      </c>
+      <c r="V64">
+        <v>0.1383892003382579</v>
+      </c>
+      <c r="W64">
+        <v>0.09391557716312988</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.8649325021141121</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.09626513599263517</v>
+      </c>
+      <c r="C65">
+        <v>-0.8512162750072187</v>
+      </c>
+      <c r="D65">
+        <v>5.244383724992781</v>
+      </c>
+      <c r="E65">
+        <v>2.3766</v>
+      </c>
+      <c r="F65">
+        <v>6.1866</v>
+      </c>
+      <c r="G65">
+        <v>0.091</v>
+      </c>
+      <c r="H65">
+        <v>6.01</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>1.02</v>
+      </c>
+      <c r="K65">
+        <v>0.446</v>
+      </c>
+      <c r="L65">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M65">
+        <v>0.6743394</v>
+      </c>
+      <c r="N65">
+        <v>-0.1003394</v>
+      </c>
+      <c r="O65">
+        <v>-0.01605430399999999</v>
+      </c>
+      <c r="P65">
+        <v>-0.08428509599999998</v>
+      </c>
+      <c r="Q65">
+        <v>0.3617149040000001</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.09985804905809363</v>
+      </c>
+      <c r="T65">
+        <v>1.321649532854808</v>
+      </c>
+      <c r="U65">
+        <v>0.109</v>
+      </c>
+      <c r="V65">
+        <v>0.1361925463646348</v>
+      </c>
+      <c r="W65">
+        <v>0.09415501244625481</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.8512034147789674</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.09726213599263518</v>
+      </c>
+      <c r="C66">
+        <v>-1.008858335102892</v>
+      </c>
+      <c r="D66">
+        <v>5.184941664897108</v>
+      </c>
+      <c r="E66">
+        <v>2.474800000000001</v>
+      </c>
+      <c r="F66">
+        <v>6.284800000000001</v>
+      </c>
+      <c r="G66">
+        <v>0.091</v>
+      </c>
+      <c r="H66">
+        <v>6.01</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1.02</v>
+      </c>
+      <c r="K66">
+        <v>0.446</v>
+      </c>
+      <c r="L66">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M66">
+        <v>0.6850432000000001</v>
+      </c>
+      <c r="N66">
+        <v>-0.1110432</v>
+      </c>
+      <c r="O66">
+        <v>-0.017766912</v>
+      </c>
+      <c r="P66">
+        <v>-0.09327628800000001</v>
+      </c>
+      <c r="Q66">
+        <v>0.352723712</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1023735504208185</v>
+      </c>
+      <c r="T66">
+        <v>1.358362019878553</v>
+      </c>
+      <c r="U66">
+        <v>0.109</v>
+      </c>
+      <c r="V66">
+        <v>0.1340645378276874</v>
+      </c>
+      <c r="W66">
+        <v>0.09438696537678208</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.837903361423046</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.09825913599263517</v>
+      </c>
+      <c r="C67">
+        <v>-1.165168014139457</v>
+      </c>
+      <c r="D67">
+        <v>5.126831985860543</v>
+      </c>
+      <c r="E67">
+        <v>2.573</v>
+      </c>
+      <c r="F67">
+        <v>6.383</v>
+      </c>
+      <c r="G67">
+        <v>0.091</v>
+      </c>
+      <c r="H67">
+        <v>6.01</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1.02</v>
+      </c>
+      <c r="K67">
+        <v>0.446</v>
+      </c>
+      <c r="L67">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M67">
+        <v>0.695747</v>
+      </c>
+      <c r="N67">
+        <v>-0.1217469999999999</v>
+      </c>
+      <c r="O67">
+        <v>-0.01947951999999999</v>
+      </c>
+      <c r="P67">
+        <v>-0.10226748</v>
+      </c>
+      <c r="Q67">
+        <v>0.34373252</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1050327947185561</v>
+      </c>
+      <c r="T67">
+        <v>1.397172363303654</v>
+      </c>
+      <c r="U67">
+        <v>0.109</v>
+      </c>
+      <c r="V67">
+        <v>0.1320020064764922</v>
+      </c>
+      <c r="W67">
+        <v>0.09461178129406235</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.8250125404780762</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.09925613599263518</v>
+      </c>
+      <c r="C68">
+        <v>-1.320189613172142</v>
+      </c>
+      <c r="D68">
+        <v>5.070010386827859</v>
+      </c>
+      <c r="E68">
+        <v>2.6712</v>
+      </c>
+      <c r="F68">
+        <v>6.4812</v>
+      </c>
+      <c r="G68">
+        <v>0.091</v>
+      </c>
+      <c r="H68">
+        <v>6.01</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1.02</v>
+      </c>
+      <c r="K68">
+        <v>0.446</v>
+      </c>
+      <c r="L68">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M68">
+        <v>0.7064508</v>
+      </c>
+      <c r="N68">
+        <v>-0.1324508</v>
+      </c>
+      <c r="O68">
+        <v>-0.021192128</v>
+      </c>
+      <c r="P68">
+        <v>-0.111258672</v>
+      </c>
+      <c r="Q68">
+        <v>0.334741328</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1078484651514548</v>
+      </c>
+      <c r="T68">
+        <v>1.438265668106703</v>
+      </c>
+      <c r="U68">
+        <v>0.109</v>
+      </c>
+      <c r="V68">
+        <v>0.1300019760753332</v>
+      </c>
+      <c r="W68">
+        <v>0.09482978460778868</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.8125123504708325</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1002531359926352</v>
+      </c>
+      <c r="C69">
+        <v>-1.473965490798578</v>
+      </c>
+      <c r="D69">
+        <v>5.014434509201422</v>
+      </c>
+      <c r="E69">
+        <v>2.769400000000001</v>
+      </c>
+      <c r="F69">
+        <v>6.579400000000001</v>
+      </c>
+      <c r="G69">
+        <v>0.091</v>
+      </c>
+      <c r="H69">
+        <v>6.01</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1.02</v>
+      </c>
+      <c r="K69">
+        <v>0.446</v>
+      </c>
+      <c r="L69">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M69">
+        <v>0.7171546000000001</v>
+      </c>
+      <c r="N69">
+        <v>-0.1431546</v>
+      </c>
+      <c r="O69">
+        <v>-0.02290473600000001</v>
+      </c>
+      <c r="P69">
+        <v>-0.120249864</v>
+      </c>
+      <c r="Q69">
+        <v>0.325750136</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1108347822772565</v>
+      </c>
+      <c r="T69">
+        <v>1.481849476231148</v>
+      </c>
+      <c r="U69">
+        <v>0.109</v>
+      </c>
+      <c r="V69">
+        <v>0.1280616480742088</v>
+      </c>
+      <c r="W69">
+        <v>0.09504128035991123</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.8003853004638052</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1231659597055712</v>
+      </c>
+      <c r="C70">
+        <v>-2.581201503198461</v>
+      </c>
+      <c r="D70">
+        <v>4.00539849680154</v>
+      </c>
+      <c r="E70">
+        <v>2.867600000000001</v>
+      </c>
+      <c r="F70">
+        <v>6.677600000000001</v>
+      </c>
+      <c r="G70">
+        <v>0.091</v>
+      </c>
+      <c r="H70">
+        <v>6.01</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1.02</v>
+      </c>
+      <c r="K70">
+        <v>0.446</v>
+      </c>
+      <c r="L70">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M70">
+        <v>0.9361995200000001</v>
+      </c>
+      <c r="N70">
+        <v>-0.36219952</v>
+      </c>
+      <c r="O70">
+        <v>-0.0579519232</v>
+      </c>
+      <c r="P70">
+        <v>-0.3042475968</v>
+      </c>
+      <c r="Q70">
+        <v>0.1417524032</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.116194693326346</v>
+      </c>
+      <c r="T70">
+        <v>1.560074703119905</v>
+      </c>
+      <c r="U70">
+        <v>0.1402</v>
+      </c>
+      <c r="V70">
+        <v>0.09809874715594813</v>
+      </c>
+      <c r="W70">
+        <v>0.1264465556487361</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.6131171697246758</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1244749597055713</v>
+      </c>
+      <c r="C71">
+        <v>-2.724924129346683</v>
+      </c>
+      <c r="D71">
+        <v>3.959875870653318</v>
+      </c>
+      <c r="E71">
+        <v>2.965800000000001</v>
+      </c>
+      <c r="F71">
+        <v>6.775800000000001</v>
+      </c>
+      <c r="G71">
+        <v>0.091</v>
+      </c>
+      <c r="H71">
+        <v>6.01</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1.02</v>
+      </c>
+      <c r="K71">
+        <v>0.446</v>
+      </c>
+      <c r="L71">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M71">
+        <v>0.9499671600000001</v>
+      </c>
+      <c r="N71">
+        <v>-0.3759671600000001</v>
+      </c>
+      <c r="O71">
+        <v>-0.06015474560000001</v>
+      </c>
+      <c r="P71">
+        <v>-0.3158124144000001</v>
+      </c>
+      <c r="Q71">
+        <v>0.1301875855999999</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1196429092400991</v>
+      </c>
+      <c r="T71">
+        <v>1.610399693543128</v>
+      </c>
+      <c r="U71">
+        <v>0.1402</v>
+      </c>
+      <c r="V71">
+        <v>0.0966770261826735</v>
+      </c>
+      <c r="W71">
+        <v>0.1266458809291892</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.6042314136417095</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1257839597055712</v>
+      </c>
+      <c r="C72">
+        <v>-2.867623625481491</v>
+      </c>
+      <c r="D72">
+        <v>3.91537637451851</v>
+      </c>
+      <c r="E72">
+        <v>3.064000000000001</v>
+      </c>
+      <c r="F72">
+        <v>6.874000000000001</v>
+      </c>
+      <c r="G72">
+        <v>0.091</v>
+      </c>
+      <c r="H72">
+        <v>6.01</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1.02</v>
+      </c>
+      <c r="K72">
+        <v>0.446</v>
+      </c>
+      <c r="L72">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M72">
+        <v>0.9637348</v>
+      </c>
+      <c r="N72">
+        <v>-0.3897347999999999</v>
+      </c>
+      <c r="O72">
+        <v>-0.06235756799999999</v>
+      </c>
+      <c r="P72">
+        <v>-0.327377232</v>
+      </c>
+      <c r="Q72">
+        <v>0.118622768</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1233210062147691</v>
+      </c>
+      <c r="T72">
+        <v>1.664079683327898</v>
+      </c>
+      <c r="U72">
+        <v>0.1402</v>
+      </c>
+      <c r="V72">
+        <v>0.09529592580863533</v>
+      </c>
+      <c r="W72">
+        <v>0.1268395112016293</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.5955995363039708</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1270929597055712</v>
+      </c>
+      <c r="C73">
+        <v>-3.009334100870302</v>
+      </c>
+      <c r="D73">
+        <v>3.871865899129697</v>
+      </c>
+      <c r="E73">
+        <v>3.1622</v>
+      </c>
+      <c r="F73">
+        <v>6.9722</v>
+      </c>
+      <c r="G73">
+        <v>0.091</v>
+      </c>
+      <c r="H73">
+        <v>6.01</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1.02</v>
+      </c>
+      <c r="K73">
+        <v>0.446</v>
+      </c>
+      <c r="L73">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M73">
+        <v>0.97750244</v>
+      </c>
+      <c r="N73">
+        <v>-0.4035024399999999</v>
+      </c>
+      <c r="O73">
+        <v>-0.06456039039999999</v>
+      </c>
+      <c r="P73">
+        <v>-0.3389420495999999</v>
+      </c>
+      <c r="Q73">
+        <v>0.1070579504000001</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1272527650497611</v>
+      </c>
+      <c r="T73">
+        <v>1.721461741373687</v>
+      </c>
+      <c r="U73">
+        <v>0.1402</v>
+      </c>
+      <c r="V73">
+        <v>0.09395372967048556</v>
+      </c>
+      <c r="W73">
+        <v>0.1270276871001979</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.5872108104405347</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1284019597055713</v>
+      </c>
+      <c r="C74">
+        <v>-3.150088165257572</v>
+      </c>
+      <c r="D74">
+        <v>3.829311834742428</v>
+      </c>
+      <c r="E74">
+        <v>3.2604</v>
+      </c>
+      <c r="F74">
+        <v>7.0704</v>
+      </c>
+      <c r="G74">
+        <v>0.091</v>
+      </c>
+      <c r="H74">
+        <v>6.01</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1.02</v>
+      </c>
+      <c r="K74">
+        <v>0.446</v>
+      </c>
+      <c r="L74">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M74">
+        <v>0.9912700799999999</v>
+      </c>
+      <c r="N74">
+        <v>-0.4172700799999999</v>
+      </c>
+      <c r="O74">
+        <v>-0.06676321279999999</v>
+      </c>
+      <c r="P74">
+        <v>-0.3505068671999999</v>
+      </c>
+      <c r="Q74">
+        <v>0.0954931328000001</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1314653638015383</v>
+      </c>
+      <c r="T74">
+        <v>1.782942517851319</v>
+      </c>
+      <c r="U74">
+        <v>0.1402</v>
+      </c>
+      <c r="V74">
+        <v>0.09264881675839547</v>
+      </c>
+      <c r="W74">
+        <v>0.127210635890473</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.5790551047399717</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1297109597055712</v>
+      </c>
+      <c r="C75">
+        <v>-3.289917010372123</v>
+      </c>
+      <c r="D75">
+        <v>3.787682989627877</v>
+      </c>
+      <c r="E75">
+        <v>3.3586</v>
+      </c>
+      <c r="F75">
+        <v>7.1686</v>
+      </c>
+      <c r="G75">
+        <v>0.091</v>
+      </c>
+      <c r="H75">
+        <v>6.01</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1.02</v>
+      </c>
+      <c r="K75">
+        <v>0.446</v>
+      </c>
+      <c r="L75">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M75">
+        <v>1.00503772</v>
+      </c>
+      <c r="N75">
+        <v>-0.4310377199999997</v>
+      </c>
+      <c r="O75">
+        <v>-0.06896603519999996</v>
+      </c>
+      <c r="P75">
+        <v>-0.3620716847999998</v>
+      </c>
+      <c r="Q75">
+        <v>0.08392831520000021</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.135990006905299</v>
+      </c>
+      <c r="T75">
+        <v>1.848977425919887</v>
+      </c>
+      <c r="U75">
+        <v>0.1402</v>
+      </c>
+      <c r="V75">
+        <v>0.09137965488499279</v>
+      </c>
+      <c r="W75">
+        <v>0.127388572385124</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.571122843031205</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1310199597055712</v>
+      </c>
+      <c r="C76">
+        <v>-3.428850486175238</v>
+      </c>
+      <c r="D76">
+        <v>3.746949513824762</v>
+      </c>
+      <c r="E76">
+        <v>3.4568</v>
+      </c>
+      <c r="F76">
+        <v>7.2668</v>
+      </c>
+      <c r="G76">
+        <v>0.091</v>
+      </c>
+      <c r="H76">
+        <v>6.01</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1.02</v>
+      </c>
+      <c r="K76">
+        <v>0.446</v>
+      </c>
+      <c r="L76">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M76">
+        <v>1.01880536</v>
+      </c>
+      <c r="N76">
+        <v>-0.4448053599999999</v>
+      </c>
+      <c r="O76">
+        <v>-0.0711688576</v>
+      </c>
+      <c r="P76">
+        <v>-0.3736365023999999</v>
+      </c>
+      <c r="Q76">
+        <v>0.0723634976000001</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1408626994785797</v>
+      </c>
+      <c r="T76">
+        <v>1.92009194230142</v>
+      </c>
+      <c r="U76">
+        <v>0.1402</v>
+      </c>
+      <c r="V76">
+        <v>0.09014479468384425</v>
+      </c>
+      <c r="W76">
+        <v>0.127561699785325</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.5634049667740264</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1323289597055712</v>
+      </c>
+      <c r="C77">
+        <v>-3.566917172241141</v>
+      </c>
+      <c r="D77">
+        <v>3.707082827758859</v>
+      </c>
+      <c r="E77">
+        <v>3.555</v>
+      </c>
+      <c r="F77">
+        <v>7.365</v>
+      </c>
+      <c r="G77">
+        <v>0.091</v>
+      </c>
+      <c r="H77">
+        <v>6.01</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1.02</v>
+      </c>
+      <c r="K77">
+        <v>0.446</v>
+      </c>
+      <c r="L77">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M77">
+        <v>1.032573</v>
+      </c>
+      <c r="N77">
+        <v>-0.4585729999999999</v>
+      </c>
+      <c r="O77">
+        <v>-0.07337167999999998</v>
+      </c>
+      <c r="P77">
+        <v>-0.3852013199999999</v>
+      </c>
+      <c r="Q77">
+        <v>0.0607986800000001</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1461252074577229</v>
+      </c>
+      <c r="T77">
+        <v>1.996895619993478</v>
+      </c>
+      <c r="U77">
+        <v>0.1402</v>
+      </c>
+      <c r="V77">
+        <v>0.08894286408805964</v>
+      </c>
+      <c r="W77">
+        <v>0.127730210454854</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.5558929005503728</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1336379597055713</v>
+      </c>
+      <c r="C78">
+        <v>-3.70414444462865</v>
+      </c>
+      <c r="D78">
+        <v>3.66805555537135</v>
+      </c>
+      <c r="E78">
+        <v>3.6532</v>
+      </c>
+      <c r="F78">
+        <v>7.463200000000001</v>
+      </c>
+      <c r="G78">
+        <v>0.091</v>
+      </c>
+      <c r="H78">
+        <v>6.01</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1.02</v>
+      </c>
+      <c r="K78">
+        <v>0.446</v>
+      </c>
+      <c r="L78">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M78">
+        <v>1.04634064</v>
+      </c>
+      <c r="N78">
+        <v>-0.4723406399999999</v>
+      </c>
+      <c r="O78">
+        <v>-0.07557450239999998</v>
+      </c>
+      <c r="P78">
+        <v>-0.3967661375999999</v>
+      </c>
+      <c r="Q78">
+        <v>0.04923386240000011</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.1518262577684614</v>
+      </c>
+      <c r="T78">
+        <v>2.080099604159873</v>
+      </c>
+      <c r="U78">
+        <v>0.1402</v>
+      </c>
+      <c r="V78">
+        <v>0.0877725632447957</v>
+      </c>
+      <c r="W78">
+        <v>0.1278942866330796</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.5485785202799731</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1349469597055712</v>
+      </c>
+      <c r="C79">
+        <v>-3.840558538572765</v>
+      </c>
+      <c r="D79">
+        <v>3.629841461427236</v>
+      </c>
+      <c r="E79">
+        <v>3.751400000000001</v>
+      </c>
+      <c r="F79">
+        <v>7.561400000000001</v>
+      </c>
+      <c r="G79">
+        <v>0.091</v>
+      </c>
+      <c r="H79">
+        <v>6.01</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1.02</v>
+      </c>
+      <c r="K79">
+        <v>0.446</v>
+      </c>
+      <c r="L79">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M79">
+        <v>1.06010828</v>
+      </c>
+      <c r="N79">
+        <v>-0.4861082800000001</v>
+      </c>
+      <c r="O79">
+        <v>-0.07777732480000001</v>
+      </c>
+      <c r="P79">
+        <v>-0.4083309552000001</v>
+      </c>
+      <c r="Q79">
+        <v>0.03766904479999994</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.1580230515844814</v>
+      </c>
+      <c r="T79">
+        <v>2.170538717384215</v>
+      </c>
+      <c r="U79">
+        <v>0.1402</v>
+      </c>
+      <c r="V79">
+        <v>0.0866326598260321</v>
+      </c>
+      <c r="W79">
+        <v>0.1280541010923903</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.5414541239127006</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1362559597055713</v>
+      </c>
+      <c r="C80">
+        <v>-3.976184607297916</v>
+      </c>
+      <c r="D80">
+        <v>3.592415392702084</v>
+      </c>
+      <c r="E80">
+        <v>3.8496</v>
+      </c>
+      <c r="F80">
+        <v>7.6596</v>
+      </c>
+      <c r="G80">
+        <v>0.091</v>
+      </c>
+      <c r="H80">
+        <v>6.01</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1.02</v>
+      </c>
+      <c r="K80">
+        <v>0.446</v>
+      </c>
+      <c r="L80">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M80">
+        <v>1.07387592</v>
+      </c>
+      <c r="N80">
+        <v>-0.4998759199999998</v>
+      </c>
+      <c r="O80">
+        <v>-0.07998014719999998</v>
+      </c>
+      <c r="P80">
+        <v>-0.4198957727999998</v>
+      </c>
+      <c r="Q80">
+        <v>0.02610422720000016</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.1647831902928669</v>
+      </c>
+      <c r="T80">
+        <v>2.269199568174407</v>
+      </c>
+      <c r="U80">
+        <v>0.1402</v>
+      </c>
+      <c r="V80">
+        <v>0.08552198470005737</v>
+      </c>
+      <c r="W80">
+        <v>0.1282098177450519</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.5345124043753585</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1375649597055713</v>
+      </c>
+      <c r="C81">
+        <v>-4.111046777229918</v>
+      </c>
+      <c r="D81">
+        <v>3.555753222770082</v>
+      </c>
+      <c r="E81">
+        <v>3.9478</v>
+      </c>
+      <c r="F81">
+        <v>7.7578</v>
+      </c>
+      <c r="G81">
+        <v>0.091</v>
+      </c>
+      <c r="H81">
+        <v>6.01</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1.02</v>
+      </c>
+      <c r="K81">
+        <v>0.446</v>
+      </c>
+      <c r="L81">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M81">
+        <v>1.08764356</v>
+      </c>
+      <c r="N81">
+        <v>-0.51364356</v>
+      </c>
+      <c r="O81">
+        <v>-0.0821829696</v>
+      </c>
+      <c r="P81">
+        <v>-0.4314605904</v>
+      </c>
+      <c r="Q81">
+        <v>0.0145394096</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.1721871517353845</v>
+      </c>
+      <c r="T81">
+        <v>2.377256690468426</v>
+      </c>
+      <c r="U81">
+        <v>0.1402</v>
+      </c>
+      <c r="V81">
+        <v>0.0844394279317022</v>
+      </c>
+      <c r="W81">
+        <v>0.1283615922039753</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.5277464245731387</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1388739597055713</v>
+      </c>
+      <c r="C82">
+        <v>-4.245168199861305</v>
+      </c>
+      <c r="D82">
+        <v>3.519831800138696</v>
+      </c>
+      <c r="E82">
+        <v>4.046000000000001</v>
+      </c>
+      <c r="F82">
+        <v>7.856000000000001</v>
+      </c>
+      <c r="G82">
+        <v>0.091</v>
+      </c>
+      <c r="H82">
+        <v>6.01</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1.02</v>
+      </c>
+      <c r="K82">
+        <v>0.446</v>
+      </c>
+      <c r="L82">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M82">
+        <v>1.1014112</v>
+      </c>
+      <c r="N82">
+        <v>-0.5274112</v>
+      </c>
+      <c r="O82">
+        <v>-0.084385792</v>
+      </c>
+      <c r="P82">
+        <v>-0.443025408</v>
+      </c>
+      <c r="Q82">
+        <v>0.002974592000000054</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.1803315093221536</v>
+      </c>
+      <c r="T82">
+        <v>2.496119524991847</v>
+      </c>
+      <c r="U82">
+        <v>0.1402</v>
+      </c>
+      <c r="V82">
+        <v>0.08338393508255593</v>
+      </c>
+      <c r="W82">
+        <v>0.1285095723014257</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.5211495942659745</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1401829597055713</v>
+      </c>
+      <c r="C83">
+        <v>-4.37857110050434</v>
+      </c>
+      <c r="D83">
+        <v>3.484628899495661</v>
+      </c>
+      <c r="E83">
+        <v>4.144200000000001</v>
+      </c>
+      <c r="F83">
+        <v>7.954200000000001</v>
+      </c>
+      <c r="G83">
+        <v>0.091</v>
+      </c>
+      <c r="H83">
+        <v>6.01</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1.02</v>
+      </c>
+      <c r="K83">
+        <v>0.446</v>
+      </c>
+      <c r="L83">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M83">
+        <v>1.11517884</v>
+      </c>
+      <c r="N83">
+        <v>-0.5411788399999999</v>
+      </c>
+      <c r="O83">
+        <v>-0.08658861439999999</v>
+      </c>
+      <c r="P83">
+        <v>-0.4545902256</v>
+      </c>
+      <c r="Q83">
+        <v>-0.008590225599999946</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.1893331677075302</v>
+      </c>
+      <c r="T83">
+        <v>2.627494236833524</v>
+      </c>
+      <c r="U83">
+        <v>0.1402</v>
+      </c>
+      <c r="V83">
+        <v>0.08235450378524041</v>
+      </c>
+      <c r="W83">
+        <v>0.1286538985693093</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.5147156486577525</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1414919597055713</v>
+      </c>
+      <c r="C84">
+        <v>-4.511276824147435</v>
+      </c>
+      <c r="D84">
+        <v>3.450123175852565</v>
+      </c>
+      <c r="E84">
+        <v>4.2424</v>
+      </c>
+      <c r="F84">
+        <v>8.0524</v>
+      </c>
+      <c r="G84">
+        <v>0.091</v>
+      </c>
+      <c r="H84">
+        <v>6.01</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1.02</v>
+      </c>
+      <c r="K84">
+        <v>0.446</v>
+      </c>
+      <c r="L84">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M84">
+        <v>1.12894648</v>
+      </c>
+      <c r="N84">
+        <v>-0.5549464799999999</v>
+      </c>
+      <c r="O84">
+        <v>-0.08879143679999998</v>
+      </c>
+      <c r="P84">
+        <v>-0.4661550431999999</v>
+      </c>
+      <c r="Q84">
+        <v>-0.02015504319999989</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.1993350103579485</v>
+      </c>
+      <c r="T84">
+        <v>2.773466138879831</v>
+      </c>
+      <c r="U84">
+        <v>0.1402</v>
+      </c>
+      <c r="V84">
+        <v>0.08135018056834724</v>
+      </c>
+      <c r="W84">
+        <v>0.1287947046843177</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.5084386285521703</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1428009597055713</v>
+      </c>
+      <c r="C85">
+        <v>-4.643305878613796</v>
+      </c>
+      <c r="D85">
+        <v>3.416294121386205</v>
+      </c>
+      <c r="E85">
+        <v>4.3406</v>
+      </c>
+      <c r="F85">
+        <v>8.150600000000001</v>
+      </c>
+      <c r="G85">
+        <v>0.091</v>
+      </c>
+      <c r="H85">
+        <v>6.01</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1.02</v>
+      </c>
+      <c r="K85">
+        <v>0.446</v>
+      </c>
+      <c r="L85">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M85">
+        <v>1.14271412</v>
+      </c>
+      <c r="N85">
+        <v>-0.5687141199999999</v>
+      </c>
+      <c r="O85">
+        <v>-0.09099425919999998</v>
+      </c>
+      <c r="P85">
+        <v>-0.4777198607999999</v>
+      </c>
+      <c r="Q85">
+        <v>-0.03171986079999989</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2105135403790043</v>
+      </c>
+      <c r="T85">
+        <v>2.936611205872762</v>
+      </c>
+      <c r="U85">
+        <v>0.1402</v>
+      </c>
+      <c r="V85">
+        <v>0.08037005791089728</v>
+      </c>
+      <c r="W85">
+        <v>0.1289321178808922</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.5023128619431079</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1812289091728755</v>
+      </c>
+      <c r="C86">
+        <v>-5.505084141825327</v>
+      </c>
+      <c r="D86">
+        <v>2.652715858174672</v>
+      </c>
+      <c r="E86">
+        <v>4.438799999999999</v>
+      </c>
+      <c r="F86">
+        <v>8.248799999999999</v>
+      </c>
+      <c r="G86">
+        <v>0.091</v>
+      </c>
+      <c r="H86">
+        <v>6.01</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>1.02</v>
+      </c>
+      <c r="K86">
+        <v>0.446</v>
+      </c>
+      <c r="L86">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M86">
+        <v>1.51530456</v>
+      </c>
+      <c r="N86">
+        <v>-0.9413045599999998</v>
+      </c>
+      <c r="O86">
+        <v>-0.1506087296</v>
+      </c>
+      <c r="P86">
+        <v>-0.7906958303999998</v>
+      </c>
+      <c r="Q86">
+        <v>-0.3446958303999998</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.2267078208233438</v>
+      </c>
+      <c r="T86">
+        <v>3.172958647174757</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.06060827798208435</v>
+      </c>
+      <c r="W86">
+        <v>0.1725662593346911</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.3788017373880272</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1829729091728755</v>
+      </c>
+      <c r="C87">
+        <v>-5.629922357760615</v>
+      </c>
+      <c r="D87">
+        <v>2.626077642239385</v>
+      </c>
+      <c r="E87">
+        <v>4.536999999999999</v>
+      </c>
+      <c r="F87">
+        <v>8.347</v>
+      </c>
+      <c r="G87">
+        <v>0.091</v>
+      </c>
+      <c r="H87">
+        <v>6.01</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1.02</v>
+      </c>
+      <c r="K87">
+        <v>0.446</v>
+      </c>
+      <c r="L87">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M87">
+        <v>1.5333439</v>
+      </c>
+      <c r="N87">
+        <v>-0.9593438999999999</v>
+      </c>
+      <c r="O87">
+        <v>-0.153495024</v>
+      </c>
+      <c r="P87">
+        <v>-0.805848876</v>
+      </c>
+      <c r="Q87">
+        <v>-0.359848876</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.2412016755449</v>
+      </c>
+      <c r="T87">
+        <v>3.384489223653075</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.05989523941758924</v>
+      </c>
+      <c r="W87">
+        <v>0.1726972445189889</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.3743452463599327</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1847169091728755</v>
+      </c>
+      <c r="C88">
+        <v>-5.754230897864648</v>
+      </c>
+      <c r="D88">
+        <v>2.599969102135351</v>
+      </c>
+      <c r="E88">
+        <v>4.635199999999999</v>
+      </c>
+      <c r="F88">
+        <v>8.4452</v>
+      </c>
+      <c r="G88">
+        <v>0.091</v>
+      </c>
+      <c r="H88">
+        <v>6.01</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>1.02</v>
+      </c>
+      <c r="K88">
+        <v>0.446</v>
+      </c>
+      <c r="L88">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M88">
+        <v>1.55138324</v>
+      </c>
+      <c r="N88">
+        <v>-0.97738324</v>
+      </c>
+      <c r="O88">
+        <v>-0.1563813184</v>
+      </c>
+      <c r="P88">
+        <v>-0.8210019216</v>
+      </c>
+      <c r="Q88">
+        <v>-0.3750019216</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.2577660809409643</v>
+      </c>
+      <c r="T88">
+        <v>3.626238453914008</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.05919878314529169</v>
+      </c>
+      <c r="W88">
+        <v>0.1728251835362099</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.369992394658073</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1864609091728755</v>
+      </c>
+      <c r="C89">
+        <v>-5.878025404775309</v>
+      </c>
+      <c r="D89">
+        <v>2.574374595224691</v>
+      </c>
+      <c r="E89">
+        <v>4.7334</v>
+      </c>
+      <c r="F89">
+        <v>8.5434</v>
+      </c>
+      <c r="G89">
+        <v>0.091</v>
+      </c>
+      <c r="H89">
+        <v>6.01</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1.02</v>
+      </c>
+      <c r="K89">
+        <v>0.446</v>
+      </c>
+      <c r="L89">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M89">
+        <v>1.56942258</v>
+      </c>
+      <c r="N89">
+        <v>-0.9954225800000001</v>
+      </c>
+      <c r="O89">
+        <v>-0.1592676128</v>
+      </c>
+      <c r="P89">
+        <v>-0.8361549672</v>
+      </c>
+      <c r="Q89">
+        <v>-0.3901549672</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.2768788563979615</v>
+      </c>
+      <c r="T89">
+        <v>3.905179873445855</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.05851833736201247</v>
+      </c>
+      <c r="W89">
+        <v>0.1729501814265983</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.3657396085125779</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.1882049091728756</v>
+      </c>
+      <c r="C90">
+        <v>-6.001320911180521</v>
+      </c>
+      <c r="D90">
+        <v>2.549279088819479</v>
+      </c>
+      <c r="E90">
+        <v>4.8316</v>
+      </c>
+      <c r="F90">
+        <v>8.6416</v>
+      </c>
+      <c r="G90">
+        <v>0.091</v>
+      </c>
+      <c r="H90">
+        <v>6.01</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1.02</v>
+      </c>
+      <c r="K90">
+        <v>0.446</v>
+      </c>
+      <c r="L90">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M90">
+        <v>1.58746192</v>
+      </c>
+      <c r="N90">
+        <v>-1.01346192</v>
+      </c>
+      <c r="O90">
+        <v>-0.1621539072</v>
+      </c>
+      <c r="P90">
+        <v>-0.8513080128000001</v>
+      </c>
+      <c r="Q90">
+        <v>-0.4053080128000001</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.2991770944311251</v>
+      </c>
+      <c r="T90">
+        <v>4.230611529566343</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.05785335625562597</v>
+      </c>
+      <c r="W90">
+        <v>0.1730723384558415</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.3615834765976622</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.1899489091728755</v>
+      </c>
+      <c r="C91">
+        <v>-6.124131869260799</v>
+      </c>
+      <c r="D91">
+        <v>2.524668130739202</v>
+      </c>
+      <c r="E91">
+        <v>4.9298</v>
+      </c>
+      <c r="F91">
+        <v>8.739800000000001</v>
+      </c>
+      <c r="G91">
+        <v>0.091</v>
+      </c>
+      <c r="H91">
+        <v>6.01</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1.02</v>
+      </c>
+      <c r="K91">
+        <v>0.446</v>
+      </c>
+      <c r="L91">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M91">
+        <v>1.60550126</v>
+      </c>
+      <c r="N91">
+        <v>-1.03150126</v>
+      </c>
+      <c r="O91">
+        <v>-0.1650402016</v>
+      </c>
+      <c r="P91">
+        <v>-0.8664610584</v>
+      </c>
+      <c r="Q91">
+        <v>-0.4204610584</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.3255295575612274</v>
+      </c>
+      <c r="T91">
+        <v>4.615212577708739</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.0572033185448886</v>
+      </c>
+      <c r="W91">
+        <v>0.173191750383304</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.3575207409055537</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.1916929091728755</v>
+      </c>
+      <c r="C92">
+        <v>-6.246472178442641</v>
+      </c>
+      <c r="D92">
+        <v>2.50052782155736</v>
+      </c>
+      <c r="E92">
+        <v>5.028</v>
+      </c>
+      <c r="F92">
+        <v>8.838000000000001</v>
+      </c>
+      <c r="G92">
+        <v>0.091</v>
+      </c>
+      <c r="H92">
+        <v>6.01</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>1.02</v>
+      </c>
+      <c r="K92">
+        <v>0.446</v>
+      </c>
+      <c r="L92">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M92">
+        <v>1.6235406</v>
+      </c>
+      <c r="N92">
+        <v>-1.0495406</v>
+      </c>
+      <c r="O92">
+        <v>-0.167926496</v>
+      </c>
+      <c r="P92">
+        <v>-0.8816141040000001</v>
+      </c>
+      <c r="Q92">
+        <v>-0.4356141040000001</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.3571525133173501</v>
+      </c>
+      <c r="T92">
+        <v>5.076733835479613</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.05656772611661205</v>
+      </c>
+      <c r="W92">
+        <v>0.1733085087123784</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.3535482882288253</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.1934369091728755</v>
+      </c>
+      <c r="C93">
+        <v>-6.368355211574809</v>
+      </c>
+      <c r="D93">
+        <v>2.476844788425193</v>
+      </c>
+      <c r="E93">
+        <v>5.126200000000001</v>
+      </c>
+      <c r="F93">
+        <v>8.936200000000001</v>
+      </c>
+      <c r="G93">
+        <v>0.091</v>
+      </c>
+      <c r="H93">
+        <v>6.01</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1.02</v>
+      </c>
+      <c r="K93">
+        <v>0.446</v>
+      </c>
+      <c r="L93">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M93">
+        <v>1.64157994</v>
+      </c>
+      <c r="N93">
+        <v>-1.06757994</v>
+      </c>
+      <c r="O93">
+        <v>-0.1708127904</v>
+      </c>
+      <c r="P93">
+        <v>-0.8967671496</v>
+      </c>
+      <c r="Q93">
+        <v>-0.4507671496</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.3958027925748335</v>
+      </c>
+      <c r="T93">
+        <v>5.640815372755126</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.05594610275269324</v>
+      </c>
+      <c r="W93">
+        <v>0.1734227009243302</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.3496631422043327</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.1951809091728755</v>
+      </c>
+      <c r="C94">
+        <v>-6.489793839630991</v>
+      </c>
+      <c r="D94">
+        <v>2.45360616036901</v>
+      </c>
+      <c r="E94">
+        <v>5.224400000000001</v>
+      </c>
+      <c r="F94">
+        <v>9.034400000000002</v>
+      </c>
+      <c r="G94">
+        <v>0.091</v>
+      </c>
+      <c r="H94">
+        <v>6.01</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>1.02</v>
+      </c>
+      <c r="K94">
+        <v>0.446</v>
+      </c>
+      <c r="L94">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M94">
+        <v>1.65961928</v>
+      </c>
+      <c r="N94">
+        <v>-1.08561928</v>
+      </c>
+      <c r="O94">
+        <v>-0.1736990848</v>
+      </c>
+      <c r="P94">
+        <v>-0.9119201952000001</v>
+      </c>
+      <c r="Q94">
+        <v>-0.4659201952000001</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.4441156416466878</v>
+      </c>
+      <c r="T94">
+        <v>6.345917294349519</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.05533799294016396</v>
+      </c>
+      <c r="W94">
+        <v>0.1735344106968919</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.3458624558760247</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.1969249091728755</v>
+      </c>
+      <c r="C95">
+        <v>-6.610800455034816</v>
+      </c>
+      <c r="D95">
+        <v>2.430799544965184</v>
+      </c>
+      <c r="E95">
+        <v>5.3226</v>
+      </c>
+      <c r="F95">
+        <v>9.1326</v>
+      </c>
+      <c r="G95">
+        <v>0.091</v>
+      </c>
+      <c r="H95">
+        <v>6.01</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1.02</v>
+      </c>
+      <c r="K95">
+        <v>0.446</v>
+      </c>
+      <c r="L95">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M95">
+        <v>1.67765862</v>
+      </c>
+      <c r="N95">
+        <v>-1.10365862</v>
+      </c>
+      <c r="O95">
+        <v>-0.1765853792</v>
+      </c>
+      <c r="P95">
+        <v>-0.9270732408</v>
+      </c>
+      <c r="Q95">
+        <v>-0.4810732408</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.506232161881929</v>
+      </c>
+      <c r="T95">
+        <v>7.252476907828021</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.05474296075801167</v>
+      </c>
+      <c r="W95">
+        <v>0.1736437181087533</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.3421435047375729</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.1986689091728756</v>
+      </c>
+      <c r="C96">
+        <v>-6.731386993695971</v>
+      </c>
+      <c r="D96">
+        <v>2.408413006304029</v>
+      </c>
+      <c r="E96">
+        <v>5.4208</v>
+      </c>
+      <c r="F96">
+        <v>9.2308</v>
+      </c>
+      <c r="G96">
+        <v>0.091</v>
+      </c>
+      <c r="H96">
+        <v>6.01</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>1.02</v>
+      </c>
+      <c r="K96">
+        <v>0.446</v>
+      </c>
+      <c r="L96">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M96">
+        <v>1.69569796</v>
+      </c>
+      <c r="N96">
+        <v>-1.12169796</v>
+      </c>
+      <c r="O96">
+        <v>-0.1794716736</v>
+      </c>
+      <c r="P96">
+        <v>-0.9422262864000001</v>
+      </c>
+      <c r="Q96">
+        <v>-0.4962262864</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.5890541888622507</v>
+      </c>
+      <c r="T96">
+        <v>8.461223059132696</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.05416058883505409</v>
+      </c>
+      <c r="W96">
+        <v>0.1737506998310006</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.3385036802190881</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2004129091728755</v>
+      </c>
+      <c r="C97">
+        <v>-6.851564955839779</v>
+      </c>
+      <c r="D97">
+        <v>2.386435044160222</v>
+      </c>
+      <c r="E97">
+        <v>5.519</v>
+      </c>
+      <c r="F97">
+        <v>9.329000000000001</v>
+      </c>
+      <c r="G97">
+        <v>0.091</v>
+      </c>
+      <c r="H97">
+        <v>6.01</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>1.02</v>
+      </c>
+      <c r="K97">
+        <v>0.446</v>
+      </c>
+      <c r="L97">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M97">
+        <v>1.7137373</v>
+      </c>
+      <c r="N97">
+        <v>-1.1397373</v>
+      </c>
+      <c r="O97">
+        <v>-0.182357968</v>
+      </c>
+      <c r="P97">
+        <v>-0.9573793320000001</v>
+      </c>
+      <c r="Q97">
+        <v>-0.5113793320000002</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.705005026634701</v>
+      </c>
+      <c r="T97">
+        <v>10.15346767095924</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.05359047737363248</v>
+      </c>
+      <c r="W97">
+        <v>0.1738554293064637</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.3349404835852029</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2021569091728755</v>
+      </c>
+      <c r="C98">
+        <v>-6.971345425706608</v>
+      </c>
+      <c r="D98">
+        <v>2.364854574293391</v>
+      </c>
+      <c r="E98">
+        <v>5.617199999999999</v>
+      </c>
+      <c r="F98">
+        <v>9.427199999999999</v>
+      </c>
+      <c r="G98">
+        <v>0.091</v>
+      </c>
+      <c r="H98">
+        <v>6.01</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1.02</v>
+      </c>
+      <c r="K98">
+        <v>0.446</v>
+      </c>
+      <c r="L98">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M98">
+        <v>1.73177664</v>
+      </c>
+      <c r="N98">
+        <v>-1.15777664</v>
+      </c>
+      <c r="O98">
+        <v>-0.1852442624</v>
+      </c>
+      <c r="P98">
+        <v>-0.9725323775999999</v>
+      </c>
+      <c r="Q98">
+        <v>-0.5265323775999999</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>0.8789312832933743</v>
+      </c>
+      <c r="T98">
+        <v>12.69183458869902</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.05303224323432381</v>
+      </c>
+      <c r="W98">
+        <v>0.1739579769178547</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.3314515202145238</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2039009091728755</v>
+      </c>
+      <c r="C99">
+        <v>-7.090739090192029</v>
+      </c>
+      <c r="D99">
+        <v>2.343660909807971</v>
+      </c>
+      <c r="E99">
+        <v>5.715399999999999</v>
+      </c>
+      <c r="F99">
+        <v>9.525399999999999</v>
+      </c>
+      <c r="G99">
+        <v>0.091</v>
+      </c>
+      <c r="H99">
+        <v>6.01</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1.02</v>
+      </c>
+      <c r="K99">
+        <v>0.446</v>
+      </c>
+      <c r="L99">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M99">
+        <v>1.74981598</v>
+      </c>
+      <c r="N99">
+        <v>-1.17581598</v>
+      </c>
+      <c r="O99">
+        <v>-0.1881305568</v>
+      </c>
+      <c r="P99">
+        <v>-0.9876854231999999</v>
+      </c>
+      <c r="Q99">
+        <v>-0.5416854231999999</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.168808377724499</v>
+      </c>
+      <c r="T99">
+        <v>16.92244611826536</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.05248551907726892</v>
+      </c>
+      <c r="W99">
+        <v>0.1740584101455057</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.3280344942329307</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2056449091728756</v>
+      </c>
+      <c r="C100">
+        <v>-7.209756256493531</v>
+      </c>
+      <c r="D100">
+        <v>2.322843743506468</v>
+      </c>
+      <c r="E100">
+        <v>5.813599999999999</v>
+      </c>
+      <c r="F100">
+        <v>9.6236</v>
+      </c>
+      <c r="G100">
+        <v>0.091</v>
+      </c>
+      <c r="H100">
+        <v>6.01</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>1.02</v>
+      </c>
+      <c r="K100">
+        <v>0.446</v>
+      </c>
+      <c r="L100">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M100">
+        <v>1.76785532</v>
+      </c>
+      <c r="N100">
+        <v>-1.19385532</v>
+      </c>
+      <c r="O100">
+        <v>-0.1910168512</v>
+      </c>
+      <c r="P100">
+        <v>-1.0028384688</v>
+      </c>
+      <c r="Q100">
+        <v>-0.5568384687999999</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>1.748562566586749</v>
+      </c>
+      <c r="T100">
+        <v>25.38366917739804</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.0519499525560723</v>
+      </c>
+      <c r="W100">
+        <v>0.1741567937154495</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.3246872034754519</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2073889091728755</v>
+      </c>
+      <c r="C101">
+        <v>-7.328406868825088</v>
+      </c>
+      <c r="D101">
+        <v>2.302393131174913</v>
+      </c>
+      <c r="E101">
+        <v>5.911799999999999</v>
+      </c>
+      <c r="F101">
+        <v>9.7218</v>
+      </c>
+      <c r="G101">
+        <v>0.091</v>
+      </c>
+      <c r="H101">
+        <v>6.01</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1.02</v>
+      </c>
+      <c r="K101">
+        <v>0.446</v>
+      </c>
+      <c r="L101">
+        <v>0.5740000000000001</v>
+      </c>
+      <c r="M101">
+        <v>1.78589466</v>
+      </c>
+      <c r="N101">
+        <v>-1.21189466</v>
+      </c>
+      <c r="O101">
+        <v>-0.1939031456</v>
+      </c>
+      <c r="P101">
+        <v>-1.0179915144</v>
+      </c>
+      <c r="Q101">
+        <v>-0.5719915144000001</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>3.487825133173498</v>
+      </c>
+      <c r="T101">
+        <v>50.76733835479607</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.05142520556055642</v>
+      </c>
+      <c r="W101">
+        <v>0.1742531897385258</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.3214075347534776</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
